--- a/excel/paimonmoe_wish_history.xlsx
+++ b/excel/paimonmoe_wish_history.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9407" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9422" uniqueCount="1026">
   <si>
     <t>Type</t>
   </si>
@@ -2739,6 +2739,15 @@
     <t>2023-04-12 13:51:18</t>
   </si>
   <si>
+    <t>2023-04-12 20:59:54</t>
+  </si>
+  <si>
+    <t>2023-04-15 08:57:54</t>
+  </si>
+  <si>
+    <t>2023-04-18 08:29:35</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
@@ -3084,7 +3093,7 @@
     <t>Export Date</t>
   </si>
   <si>
-    <t>2023-04-14 21:18:32</t>
+    <t>2023-04-18 10:16:22</t>
   </si>
 </sst>
 </file>
@@ -51372,7 +51381,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -56403,6 +56412,93 @@
         <v>734</v>
       </c>
       <c r="I173" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>907</v>
+      </c>
+      <c r="D174" s="9">
+        <v>3</v>
+      </c>
+      <c r="E174" s="9">
+        <v>1</v>
+      </c>
+      <c r="F174" s="9">
+        <v>173</v>
+      </c>
+      <c r="G174" s="9">
+        <v>173</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="D175" s="16">
+        <v>3</v>
+      </c>
+      <c r="E175" s="16">
+        <v>1</v>
+      </c>
+      <c r="F175" s="16">
+        <v>174</v>
+      </c>
+      <c r="G175" s="16">
+        <v>174</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="I175" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" s="25" t="s">
+        <v>909</v>
+      </c>
+      <c r="D176" s="26">
+        <v>5</v>
+      </c>
+      <c r="E176" s="26">
+        <v>77</v>
+      </c>
+      <c r="F176" s="26">
+        <v>175</v>
+      </c>
+      <c r="G176" s="26">
+        <v>175</v>
+      </c>
+      <c r="H176" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="I176" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -56480,21 +56576,21 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C1" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -56502,65 +56598,65 @@
         <v>734</v>
       </c>
       <c r="B3" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C3" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B4" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C4" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B5" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C5" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B6" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C6" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B7" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C7" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B8" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C8" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -56568,98 +56664,98 @@
         <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C9" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B10" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C10" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B11" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C11" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B12" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C12" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B13" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C13" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B14" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C14" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B15" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C15" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B16" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C16" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B17" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C17" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -56667,21 +56763,21 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C18" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B19" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C19" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -56689,21 +56785,21 @@
         <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C20" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B21" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C21" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -56711,43 +56807,43 @@
         <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C22" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B23" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C23" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B24" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C24" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B25" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C25" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -56755,10 +56851,10 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C26" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -56766,21 +56862,21 @@
         <v>430</v>
       </c>
       <c r="B27" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C27" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B28" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C28" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -56788,43 +56884,43 @@
         <v>380</v>
       </c>
       <c r="B29" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C29" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B30" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C30" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B31" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C31" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B32" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C32" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -56832,10 +56928,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C33" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -56843,10 +56939,10 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="C34" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -56854,10 +56950,10 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="C35" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -56865,10 +56961,10 @@
         <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C36" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -56876,10 +56972,10 @@
         <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C37" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -56887,10 +56983,10 @@
         <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C38" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -56898,10 +56994,10 @@
         <v>247</v>
       </c>
       <c r="B39" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C39" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -56909,10 +57005,10 @@
         <v>322</v>
       </c>
       <c r="B40" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C40" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -56920,10 +57016,10 @@
         <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C41" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -56931,10 +57027,10 @@
         <v>380</v>
       </c>
       <c r="B42" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C42" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -56942,21 +57038,21 @@
         <v>403</v>
       </c>
       <c r="B43" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C43" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B44" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C44" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -56964,32 +57060,32 @@
         <v>424</v>
       </c>
       <c r="B45" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C45" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B46" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C46" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B47" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="C47" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -56997,10 +57093,10 @@
         <v>430</v>
       </c>
       <c r="B48" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C48" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -57008,10 +57104,10 @@
         <v>351</v>
       </c>
       <c r="B49" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C49" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -57019,10 +57115,10 @@
         <v>493</v>
       </c>
       <c r="B50" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C50" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -57030,10 +57126,10 @@
         <v>493</v>
       </c>
       <c r="B51" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C51" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -57041,10 +57137,10 @@
         <v>493</v>
       </c>
       <c r="B52" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="C52" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -57052,10 +57148,10 @@
         <v>493</v>
       </c>
       <c r="B53" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C53" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -57063,10 +57159,10 @@
         <v>493</v>
       </c>
       <c r="B54" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C54" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -57074,10 +57170,10 @@
         <v>493</v>
       </c>
       <c r="B55" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="C55" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -57085,10 +57181,10 @@
         <v>493</v>
       </c>
       <c r="B56" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C56" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -57096,10 +57192,10 @@
         <v>493</v>
       </c>
       <c r="B57" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C57" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -57107,10 +57203,10 @@
         <v>493</v>
       </c>
       <c r="B58" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C58" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -57118,10 +57214,10 @@
         <v>493</v>
       </c>
       <c r="B59" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C59" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -57129,10 +57225,10 @@
         <v>493</v>
       </c>
       <c r="B60" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C60" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -57140,10 +57236,10 @@
         <v>493</v>
       </c>
       <c r="B61" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C61" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -57151,10 +57247,10 @@
         <v>493</v>
       </c>
       <c r="B62" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C62" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -57162,10 +57258,10 @@
         <v>493</v>
       </c>
       <c r="B63" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C63" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -57173,10 +57269,10 @@
         <v>493</v>
       </c>
       <c r="B64" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C64" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -57184,10 +57280,10 @@
         <v>493</v>
       </c>
       <c r="B65" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C65" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -57195,10 +57291,10 @@
         <v>493</v>
       </c>
       <c r="B66" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C66" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -57206,10 +57302,10 @@
         <v>493</v>
       </c>
       <c r="B67" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C67" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -57217,10 +57313,10 @@
         <v>493</v>
       </c>
       <c r="B68" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C68" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -57228,10 +57324,10 @@
         <v>493</v>
       </c>
       <c r="B69" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C69" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -57239,10 +57335,10 @@
         <v>493</v>
       </c>
       <c r="B70" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C70" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -57250,10 +57346,10 @@
         <v>493</v>
       </c>
       <c r="B71" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C71" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -57261,10 +57357,10 @@
         <v>493</v>
       </c>
       <c r="B72" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C72" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -57272,10 +57368,10 @@
         <v>493</v>
       </c>
       <c r="B73" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C73" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -57283,10 +57379,10 @@
         <v>493</v>
       </c>
       <c r="B74" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C74" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -57294,10 +57390,10 @@
         <v>493</v>
       </c>
       <c r="B75" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C75" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -57305,10 +57401,10 @@
         <v>493</v>
       </c>
       <c r="B76" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C76" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -57316,10 +57412,10 @@
         <v>493</v>
       </c>
       <c r="B77" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C77" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -57327,10 +57423,10 @@
         <v>493</v>
       </c>
       <c r="B78" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C78" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -57338,10 +57434,10 @@
         <v>493</v>
       </c>
       <c r="B79" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="C79" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -57349,10 +57445,10 @@
         <v>493</v>
       </c>
       <c r="B80" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="C80" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -57360,10 +57456,10 @@
         <v>493</v>
       </c>
       <c r="B81" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C81" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -57371,10 +57467,10 @@
         <v>493</v>
       </c>
       <c r="B82" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C82" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -57382,10 +57478,10 @@
         <v>493</v>
       </c>
       <c r="B83" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C83" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -57393,10 +57489,10 @@
         <v>493</v>
       </c>
       <c r="B84" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C84" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -57404,10 +57500,10 @@
         <v>493</v>
       </c>
       <c r="B85" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C85" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -57415,10 +57511,10 @@
         <v>493</v>
       </c>
       <c r="B86" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C86" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -57426,10 +57522,10 @@
         <v>493</v>
       </c>
       <c r="B87" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="C87" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -57437,10 +57533,10 @@
         <v>493</v>
       </c>
       <c r="B88" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C88" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -57448,10 +57544,10 @@
         <v>493</v>
       </c>
       <c r="B89" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C89" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -57459,10 +57555,10 @@
         <v>493</v>
       </c>
       <c r="B90" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C90" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -57470,10 +57566,10 @@
         <v>493</v>
       </c>
       <c r="B91" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C91" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -57481,10 +57577,10 @@
         <v>493</v>
       </c>
       <c r="B92" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="C92" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -57492,10 +57588,10 @@
         <v>493</v>
       </c>
       <c r="B93" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C93" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -57503,10 +57599,10 @@
         <v>493</v>
       </c>
       <c r="B94" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C94" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -57526,13 +57622,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -57540,10 +57636,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>

--- a/excel/paimonmoe_wish_history.xlsx
+++ b/excel/paimonmoe_wish_history.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12643" uniqueCount="1327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12963" uniqueCount="1392">
   <si>
     <t>Type</t>
   </si>
@@ -2955,6 +2955,171 @@
     <t>2023-08-17 21:18:59</t>
   </si>
   <si>
+    <t>2023-08-17 22:27:35</t>
+  </si>
+  <si>
+    <t>2023-08-17 22:27:44</t>
+  </si>
+  <si>
+    <t>2023-08-17 22:28:01</t>
+  </si>
+  <si>
+    <t>2023-08-18 06:18:26</t>
+  </si>
+  <si>
+    <t>2023-08-18 06:18:53</t>
+  </si>
+  <si>
+    <t>2023-08-18 07:04:53</t>
+  </si>
+  <si>
+    <t>2023-08-18 08:09:38</t>
+  </si>
+  <si>
+    <t>2023-08-18 14:08:35</t>
+  </si>
+  <si>
+    <t>2023-08-18 14:09:02</t>
+  </si>
+  <si>
+    <t>2023-08-18 17:03:36</t>
+  </si>
+  <si>
+    <t>2023-08-18 17:03:43</t>
+  </si>
+  <si>
+    <t>2023-08-18 21:08:03</t>
+  </si>
+  <si>
+    <t>2023-08-19 06:51:12</t>
+  </si>
+  <si>
+    <t>2023-08-19 08:46:23</t>
+  </si>
+  <si>
+    <t>2023-08-19 17:15:58</t>
+  </si>
+  <si>
+    <t>2023-08-19 19:42:34</t>
+  </si>
+  <si>
+    <t>2023-08-19 19:42:51</t>
+  </si>
+  <si>
+    <t>2023-08-20 08:44:30</t>
+  </si>
+  <si>
+    <t>2023-08-20 17:46:40</t>
+  </si>
+  <si>
+    <t>2023-08-20 17:46:46</t>
+  </si>
+  <si>
+    <t>2023-08-20 17:46:55</t>
+  </si>
+  <si>
+    <t>2023-08-20 17:47:02</t>
+  </si>
+  <si>
+    <t>2023-08-20 17:47:09</t>
+  </si>
+  <si>
+    <t>2023-08-20 17:47:14</t>
+  </si>
+  <si>
+    <t>2023-08-20 17:47:25</t>
+  </si>
+  <si>
+    <t>2023-08-21 06:01:22</t>
+  </si>
+  <si>
+    <t>2023-08-21 10:13:49</t>
+  </si>
+  <si>
+    <t>2023-08-21 18:37:49</t>
+  </si>
+  <si>
+    <t>2023-08-22 06:47:11</t>
+  </si>
+  <si>
+    <t>2023-08-22 06:56:54</t>
+  </si>
+  <si>
+    <t>2023-08-22 16:06:26</t>
+  </si>
+  <si>
+    <t>2023-08-23 06:56:07</t>
+  </si>
+  <si>
+    <t>2023-08-23 06:56:25</t>
+  </si>
+  <si>
+    <t>2023-08-23 15:09:14</t>
+  </si>
+  <si>
+    <t>2023-08-23 16:08:55</t>
+  </si>
+  <si>
+    <t>2023-08-23 16:09:02</t>
+  </si>
+  <si>
+    <t>2023-08-24 06:03:15</t>
+  </si>
+  <si>
+    <t>2023-08-24 15:16:02</t>
+  </si>
+  <si>
+    <t>2023-08-24 15:34:56</t>
+  </si>
+  <si>
+    <t>2023-08-24 15:53:35</t>
+  </si>
+  <si>
+    <t>2023-08-24 15:53:53</t>
+  </si>
+  <si>
+    <t>2023-08-25 07:07:03</t>
+  </si>
+  <si>
+    <t>2023-08-25 17:38:20</t>
+  </si>
+  <si>
+    <t>2023-08-26 07:43:46</t>
+  </si>
+  <si>
+    <t>2023-08-26 07:43:53</t>
+  </si>
+  <si>
+    <t>2023-08-26 07:55:16</t>
+  </si>
+  <si>
+    <t>2023-08-27 07:23:54</t>
+  </si>
+  <si>
+    <t>2023-08-28 06:06:02</t>
+  </si>
+  <si>
+    <t>Skyward Pride</t>
+  </si>
+  <si>
+    <t>2023-08-28 07:09:39</t>
+  </si>
+  <si>
+    <t>2023-08-28 07:10:11</t>
+  </si>
+  <si>
+    <t>2023-08-28 07:10:16</t>
+  </si>
+  <si>
+    <t>2023-08-28 07:59:01</t>
+  </si>
+  <si>
+    <t>2023-08-28 07:59:06</t>
+  </si>
+  <si>
+    <t>2023-08-28 07:59:09</t>
+  </si>
+  <si>
     <t>2022-06-03 06:59:41</t>
   </si>
   <si>
@@ -3621,6 +3786,36 @@
     <t>2023-08-17 07:28:38</t>
   </si>
   <si>
+    <t>2023-08-17 22:19:32</t>
+  </si>
+  <si>
+    <t>2023-08-17 22:19:38</t>
+  </si>
+  <si>
+    <t>2023-08-18 14:08:43</t>
+  </si>
+  <si>
+    <t>2023-08-18 14:08:49</t>
+  </si>
+  <si>
+    <t>2023-08-18 20:56:51</t>
+  </si>
+  <si>
+    <t>2023-08-21 09:03:08</t>
+  </si>
+  <si>
+    <t>2023-08-21 09:03:14</t>
+  </si>
+  <si>
+    <t>2023-08-22 06:47:18</t>
+  </si>
+  <si>
+    <t>2023-08-26 16:58:55</t>
+  </si>
+  <si>
+    <t>2023-08-28 06:06:12</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
@@ -3996,7 +4191,7 @@
     <t>Export Date</t>
   </si>
   <si>
-    <t>2023-08-18 10:24:23</t>
+    <t>2023-08-28 11:47:51</t>
   </si>
 </sst>
 </file>
@@ -51186,7 +51381,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I620"/>
+  <dimension ref="A1:I674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -69183,6 +69378,1572 @@
         <v>13</v>
       </c>
     </row>
+    <row r="621" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B621" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C621" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="D621" s="13">
+        <v>4</v>
+      </c>
+      <c r="E621" s="13">
+        <v>9</v>
+      </c>
+      <c r="F621" s="13">
+        <v>52</v>
+      </c>
+      <c r="G621" s="13">
+        <v>34</v>
+      </c>
+      <c r="H621" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="I621" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B622" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C622" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="D622" s="16">
+        <v>3</v>
+      </c>
+      <c r="E622" s="16">
+        <v>1</v>
+      </c>
+      <c r="F622" s="16">
+        <v>53</v>
+      </c>
+      <c r="G622" s="16">
+        <v>35</v>
+      </c>
+      <c r="H622" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I622" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B623" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C623" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="D623" s="9">
+        <v>3</v>
+      </c>
+      <c r="E623" s="9">
+        <v>1</v>
+      </c>
+      <c r="F623" s="9">
+        <v>54</v>
+      </c>
+      <c r="G623" s="9">
+        <v>36</v>
+      </c>
+      <c r="H623" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I623" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B624" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C624" s="18" t="s">
+        <v>982</v>
+      </c>
+      <c r="D624" s="19">
+        <v>4</v>
+      </c>
+      <c r="E624" s="19">
+        <v>3</v>
+      </c>
+      <c r="F624" s="19">
+        <v>55</v>
+      </c>
+      <c r="G624" s="19">
+        <v>37</v>
+      </c>
+      <c r="H624" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="I624" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B625" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C625" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="D625" s="9">
+        <v>3</v>
+      </c>
+      <c r="E625" s="9">
+        <v>1</v>
+      </c>
+      <c r="F625" s="9">
+        <v>56</v>
+      </c>
+      <c r="G625" s="9">
+        <v>38</v>
+      </c>
+      <c r="H625" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I625" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B626" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C626" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="D626" s="19">
+        <v>4</v>
+      </c>
+      <c r="E626" s="19">
+        <v>2</v>
+      </c>
+      <c r="F626" s="19">
+        <v>57</v>
+      </c>
+      <c r="G626" s="19">
+        <v>39</v>
+      </c>
+      <c r="H626" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="I626" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C627" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="D627" s="9">
+        <v>3</v>
+      </c>
+      <c r="E627" s="9">
+        <v>1</v>
+      </c>
+      <c r="F627" s="9">
+        <v>58</v>
+      </c>
+      <c r="G627" s="9">
+        <v>40</v>
+      </c>
+      <c r="H627" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I627" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B628" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C628" s="15" t="s">
+        <v>986</v>
+      </c>
+      <c r="D628" s="16">
+        <v>3</v>
+      </c>
+      <c r="E628" s="16">
+        <v>1</v>
+      </c>
+      <c r="F628" s="16">
+        <v>59</v>
+      </c>
+      <c r="G628" s="16">
+        <v>41</v>
+      </c>
+      <c r="H628" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I628" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C629" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="D629" s="9">
+        <v>3</v>
+      </c>
+      <c r="E629" s="9">
+        <v>1</v>
+      </c>
+      <c r="F629" s="9">
+        <v>60</v>
+      </c>
+      <c r="G629" s="9">
+        <v>42</v>
+      </c>
+      <c r="H629" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I629" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B630" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C630" s="15" t="s">
+        <v>988</v>
+      </c>
+      <c r="D630" s="16">
+        <v>3</v>
+      </c>
+      <c r="E630" s="16">
+        <v>1</v>
+      </c>
+      <c r="F630" s="16">
+        <v>61</v>
+      </c>
+      <c r="G630" s="16">
+        <v>43</v>
+      </c>
+      <c r="H630" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I630" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B631" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C631" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="D631" s="9">
+        <v>3</v>
+      </c>
+      <c r="E631" s="9">
+        <v>1</v>
+      </c>
+      <c r="F631" s="9">
+        <v>62</v>
+      </c>
+      <c r="G631" s="9">
+        <v>44</v>
+      </c>
+      <c r="H631" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I631" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B632" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C632" s="15" t="s">
+        <v>990</v>
+      </c>
+      <c r="D632" s="16">
+        <v>3</v>
+      </c>
+      <c r="E632" s="16">
+        <v>1</v>
+      </c>
+      <c r="F632" s="16">
+        <v>63</v>
+      </c>
+      <c r="G632" s="16">
+        <v>45</v>
+      </c>
+      <c r="H632" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I632" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B633" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C633" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="D633" s="9">
+        <v>3</v>
+      </c>
+      <c r="E633" s="9">
+        <v>1</v>
+      </c>
+      <c r="F633" s="9">
+        <v>64</v>
+      </c>
+      <c r="G633" s="9">
+        <v>46</v>
+      </c>
+      <c r="H633" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I633" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B634" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C634" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="D634" s="19">
+        <v>4</v>
+      </c>
+      <c r="E634" s="19">
+        <v>8</v>
+      </c>
+      <c r="F634" s="19">
+        <v>65</v>
+      </c>
+      <c r="G634" s="19">
+        <v>47</v>
+      </c>
+      <c r="H634" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="I634" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B635" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C635" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="D635" s="9">
+        <v>3</v>
+      </c>
+      <c r="E635" s="9">
+        <v>1</v>
+      </c>
+      <c r="F635" s="9">
+        <v>66</v>
+      </c>
+      <c r="G635" s="9">
+        <v>48</v>
+      </c>
+      <c r="H635" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I635" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B636" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C636" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="D636" s="19">
+        <v>4</v>
+      </c>
+      <c r="E636" s="19">
+        <v>2</v>
+      </c>
+      <c r="F636" s="19">
+        <v>67</v>
+      </c>
+      <c r="G636" s="19">
+        <v>49</v>
+      </c>
+      <c r="H636" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="I636" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B637" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C637" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="D637" s="9">
+        <v>3</v>
+      </c>
+      <c r="E637" s="9">
+        <v>1</v>
+      </c>
+      <c r="F637" s="9">
+        <v>68</v>
+      </c>
+      <c r="G637" s="9">
+        <v>50</v>
+      </c>
+      <c r="H637" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I637" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B638" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C638" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="D638" s="16">
+        <v>3</v>
+      </c>
+      <c r="E638" s="16">
+        <v>1</v>
+      </c>
+      <c r="F638" s="16">
+        <v>69</v>
+      </c>
+      <c r="G638" s="16">
+        <v>51</v>
+      </c>
+      <c r="H638" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I638" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B639" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C639" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="D639" s="9">
+        <v>3</v>
+      </c>
+      <c r="E639" s="9">
+        <v>1</v>
+      </c>
+      <c r="F639" s="9">
+        <v>70</v>
+      </c>
+      <c r="G639" s="9">
+        <v>52</v>
+      </c>
+      <c r="H639" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I639" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B640" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C640" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="D640" s="16">
+        <v>3</v>
+      </c>
+      <c r="E640" s="16">
+        <v>1</v>
+      </c>
+      <c r="F640" s="16">
+        <v>71</v>
+      </c>
+      <c r="G640" s="16">
+        <v>53</v>
+      </c>
+      <c r="H640" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I640" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C641" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="D641" s="9">
+        <v>3</v>
+      </c>
+      <c r="E641" s="9">
+        <v>1</v>
+      </c>
+      <c r="F641" s="9">
+        <v>72</v>
+      </c>
+      <c r="G641" s="9">
+        <v>54</v>
+      </c>
+      <c r="H641" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I641" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B642" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C642" s="15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D642" s="16">
+        <v>3</v>
+      </c>
+      <c r="E642" s="16">
+        <v>1</v>
+      </c>
+      <c r="F642" s="16">
+        <v>73</v>
+      </c>
+      <c r="G642" s="16">
+        <v>55</v>
+      </c>
+      <c r="H642" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I642" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C643" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D643" s="9">
+        <v>3</v>
+      </c>
+      <c r="E643" s="9">
+        <v>1</v>
+      </c>
+      <c r="F643" s="9">
+        <v>74</v>
+      </c>
+      <c r="G643" s="9">
+        <v>56</v>
+      </c>
+      <c r="H643" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I643" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B644" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C644" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D644" s="19">
+        <v>4</v>
+      </c>
+      <c r="E644" s="19">
+        <v>8</v>
+      </c>
+      <c r="F644" s="19">
+        <v>75</v>
+      </c>
+      <c r="G644" s="19">
+        <v>57</v>
+      </c>
+      <c r="H644" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="I644" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C645" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D645" s="9">
+        <v>3</v>
+      </c>
+      <c r="E645" s="9">
+        <v>1</v>
+      </c>
+      <c r="F645" s="9">
+        <v>76</v>
+      </c>
+      <c r="G645" s="9">
+        <v>58</v>
+      </c>
+      <c r="H645" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I645" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B646" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C646" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D646" s="16">
+        <v>3</v>
+      </c>
+      <c r="E646" s="16">
+        <v>1</v>
+      </c>
+      <c r="F646" s="16">
+        <v>77</v>
+      </c>
+      <c r="G646" s="16">
+        <v>59</v>
+      </c>
+      <c r="H646" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I646" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B647" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C647" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D647" s="9">
+        <v>3</v>
+      </c>
+      <c r="E647" s="9">
+        <v>1</v>
+      </c>
+      <c r="F647" s="9">
+        <v>78</v>
+      </c>
+      <c r="G647" s="9">
+        <v>60</v>
+      </c>
+      <c r="H647" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I647" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B648" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C648" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D648" s="16">
+        <v>3</v>
+      </c>
+      <c r="E648" s="16">
+        <v>1</v>
+      </c>
+      <c r="F648" s="16">
+        <v>79</v>
+      </c>
+      <c r="G648" s="16">
+        <v>61</v>
+      </c>
+      <c r="H648" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I648" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B649" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C649" s="8" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D649" s="9">
+        <v>3</v>
+      </c>
+      <c r="E649" s="9">
+        <v>1</v>
+      </c>
+      <c r="F649" s="9">
+        <v>80</v>
+      </c>
+      <c r="G649" s="9">
+        <v>62</v>
+      </c>
+      <c r="H649" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I649" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B650" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C650" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D650" s="16">
+        <v>3</v>
+      </c>
+      <c r="E650" s="16">
+        <v>1</v>
+      </c>
+      <c r="F650" s="16">
+        <v>81</v>
+      </c>
+      <c r="G650" s="16">
+        <v>63</v>
+      </c>
+      <c r="H650" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I650" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B651" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C651" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D651" s="9">
+        <v>3</v>
+      </c>
+      <c r="E651" s="9">
+        <v>1</v>
+      </c>
+      <c r="F651" s="9">
+        <v>82</v>
+      </c>
+      <c r="G651" s="9">
+        <v>64</v>
+      </c>
+      <c r="H651" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I651" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B652" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C652" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D652" s="19">
+        <v>4</v>
+      </c>
+      <c r="E652" s="19">
+        <v>8</v>
+      </c>
+      <c r="F652" s="19">
+        <v>83</v>
+      </c>
+      <c r="G652" s="19">
+        <v>65</v>
+      </c>
+      <c r="H652" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="I652" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B653" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C653" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D653" s="9">
+        <v>3</v>
+      </c>
+      <c r="E653" s="9">
+        <v>1</v>
+      </c>
+      <c r="F653" s="9">
+        <v>84</v>
+      </c>
+      <c r="G653" s="9">
+        <v>66</v>
+      </c>
+      <c r="H653" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I653" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B654" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C654" s="15" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D654" s="16">
+        <v>3</v>
+      </c>
+      <c r="E654" s="16">
+        <v>1</v>
+      </c>
+      <c r="F654" s="16">
+        <v>85</v>
+      </c>
+      <c r="G654" s="16">
+        <v>67</v>
+      </c>
+      <c r="H654" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I654" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C655" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D655" s="9">
+        <v>3</v>
+      </c>
+      <c r="E655" s="9">
+        <v>1</v>
+      </c>
+      <c r="F655" s="9">
+        <v>86</v>
+      </c>
+      <c r="G655" s="9">
+        <v>68</v>
+      </c>
+      <c r="H655" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I655" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B656" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C656" s="15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D656" s="16">
+        <v>3</v>
+      </c>
+      <c r="E656" s="16">
+        <v>1</v>
+      </c>
+      <c r="F656" s="16">
+        <v>87</v>
+      </c>
+      <c r="G656" s="16">
+        <v>69</v>
+      </c>
+      <c r="H656" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I656" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C657" s="8" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D657" s="9">
+        <v>3</v>
+      </c>
+      <c r="E657" s="9">
+        <v>1</v>
+      </c>
+      <c r="F657" s="9">
+        <v>88</v>
+      </c>
+      <c r="G657" s="9">
+        <v>70</v>
+      </c>
+      <c r="H657" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I657" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B658" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C658" s="15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D658" s="16">
+        <v>3</v>
+      </c>
+      <c r="E658" s="16">
+        <v>1</v>
+      </c>
+      <c r="F658" s="16">
+        <v>89</v>
+      </c>
+      <c r="G658" s="16">
+        <v>71</v>
+      </c>
+      <c r="H658" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I658" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C659" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D659" s="9">
+        <v>3</v>
+      </c>
+      <c r="E659" s="9">
+        <v>1</v>
+      </c>
+      <c r="F659" s="9">
+        <v>90</v>
+      </c>
+      <c r="G659" s="9">
+        <v>72</v>
+      </c>
+      <c r="H659" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I659" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B660" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C660" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D660" s="19">
+        <v>4</v>
+      </c>
+      <c r="E660" s="19">
+        <v>8</v>
+      </c>
+      <c r="F660" s="19">
+        <v>91</v>
+      </c>
+      <c r="G660" s="19">
+        <v>73</v>
+      </c>
+      <c r="H660" s="17" t="s">
+        <v>693</v>
+      </c>
+      <c r="I660" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C661" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D661" s="9">
+        <v>3</v>
+      </c>
+      <c r="E661" s="9">
+        <v>1</v>
+      </c>
+      <c r="F661" s="9">
+        <v>92</v>
+      </c>
+      <c r="G661" s="9">
+        <v>74</v>
+      </c>
+      <c r="H661" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I661" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B662" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C662" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D662" s="16">
+        <v>3</v>
+      </c>
+      <c r="E662" s="16">
+        <v>1</v>
+      </c>
+      <c r="F662" s="16">
+        <v>93</v>
+      </c>
+      <c r="G662" s="16">
+        <v>75</v>
+      </c>
+      <c r="H662" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I662" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B663" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C663" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D663" s="9">
+        <v>3</v>
+      </c>
+      <c r="E663" s="9">
+        <v>1</v>
+      </c>
+      <c r="F663" s="9">
+        <v>94</v>
+      </c>
+      <c r="G663" s="9">
+        <v>76</v>
+      </c>
+      <c r="H663" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I663" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B664" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C664" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D664" s="16">
+        <v>3</v>
+      </c>
+      <c r="E664" s="16">
+        <v>1</v>
+      </c>
+      <c r="F664" s="16">
+        <v>95</v>
+      </c>
+      <c r="G664" s="16">
+        <v>77</v>
+      </c>
+      <c r="H664" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I664" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B665" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C665" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D665" s="13">
+        <v>4</v>
+      </c>
+      <c r="E665" s="13">
+        <v>5</v>
+      </c>
+      <c r="F665" s="13">
+        <v>96</v>
+      </c>
+      <c r="G665" s="13">
+        <v>78</v>
+      </c>
+      <c r="H665" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="I665" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B666" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C666" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D666" s="16">
+        <v>3</v>
+      </c>
+      <c r="E666" s="16">
+        <v>1</v>
+      </c>
+      <c r="F666" s="16">
+        <v>97</v>
+      </c>
+      <c r="G666" s="16">
+        <v>79</v>
+      </c>
+      <c r="H666" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I666" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B667" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C667" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D667" s="13">
+        <v>4</v>
+      </c>
+      <c r="E667" s="13">
+        <v>2</v>
+      </c>
+      <c r="F667" s="13">
+        <v>98</v>
+      </c>
+      <c r="G667" s="13">
+        <v>80</v>
+      </c>
+      <c r="H667" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="I667" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B668" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C668" s="15" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D668" s="16">
+        <v>3</v>
+      </c>
+      <c r="E668" s="16">
+        <v>1</v>
+      </c>
+      <c r="F668" s="16">
+        <v>99</v>
+      </c>
+      <c r="G668" s="16">
+        <v>81</v>
+      </c>
+      <c r="H668" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I668" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B669" s="24" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C669" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D669" s="26">
+        <v>5</v>
+      </c>
+      <c r="E669" s="26">
+        <v>66</v>
+      </c>
+      <c r="F669" s="26">
+        <v>100</v>
+      </c>
+      <c r="G669" s="26">
+        <v>82</v>
+      </c>
+      <c r="H669" s="24" t="s">
+        <v>693</v>
+      </c>
+      <c r="I669" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B670" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C670" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D670" s="16">
+        <v>3</v>
+      </c>
+      <c r="E670" s="16">
+        <v>1</v>
+      </c>
+      <c r="F670" s="16">
+        <v>101</v>
+      </c>
+      <c r="G670" s="16">
+        <v>83</v>
+      </c>
+      <c r="H670" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I670" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B671" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C671" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D671" s="9">
+        <v>3</v>
+      </c>
+      <c r="E671" s="9">
+        <v>1</v>
+      </c>
+      <c r="F671" s="9">
+        <v>102</v>
+      </c>
+      <c r="G671" s="9">
+        <v>84</v>
+      </c>
+      <c r="H671" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I671" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B672" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C672" s="15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D672" s="16">
+        <v>3</v>
+      </c>
+      <c r="E672" s="16">
+        <v>1</v>
+      </c>
+      <c r="F672" s="16">
+        <v>103</v>
+      </c>
+      <c r="G672" s="16">
+        <v>85</v>
+      </c>
+      <c r="H672" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I672" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B673" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C673" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D673" s="9">
+        <v>3</v>
+      </c>
+      <c r="E673" s="9">
+        <v>1</v>
+      </c>
+      <c r="F673" s="9">
+        <v>104</v>
+      </c>
+      <c r="G673" s="9">
+        <v>86</v>
+      </c>
+      <c r="H673" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="I673" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B674" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C674" s="15" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D674" s="16">
+        <v>3</v>
+      </c>
+      <c r="E674" s="16">
+        <v>1</v>
+      </c>
+      <c r="F674" s="16">
+        <v>105</v>
+      </c>
+      <c r="G674" s="16">
+        <v>87</v>
+      </c>
+      <c r="H674" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="I674" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -69191,7 +70952,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -69245,7 +71006,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>979</v>
+        <v>1034</v>
       </c>
       <c r="D2" s="9">
         <v>3</v>
@@ -69260,7 +71021,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>13</v>
@@ -69274,7 +71035,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>981</v>
+        <v>1036</v>
       </c>
       <c r="D3" s="16">
         <v>3</v>
@@ -69289,7 +71050,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>13</v>
@@ -69303,7 +71064,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>982</v>
+        <v>1037</v>
       </c>
       <c r="D4" s="9">
         <v>3</v>
@@ -69318,7 +71079,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>13</v>
@@ -69332,7 +71093,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>983</v>
+        <v>1038</v>
       </c>
       <c r="D5" s="16">
         <v>3</v>
@@ -69347,7 +71108,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>13</v>
@@ -69361,7 +71122,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>984</v>
+        <v>1039</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -69376,7 +71137,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>13</v>
@@ -69390,7 +71151,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>985</v>
+        <v>1040</v>
       </c>
       <c r="D7" s="19">
         <v>4</v>
@@ -69405,7 +71166,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>13</v>
@@ -69419,7 +71180,7 @@
         <v>826</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>986</v>
+        <v>1041</v>
       </c>
       <c r="D8" s="26">
         <v>5</v>
@@ -69434,7 +71195,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>13</v>
@@ -69448,7 +71209,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>987</v>
+        <v>1042</v>
       </c>
       <c r="D9" s="16">
         <v>3</v>
@@ -69463,7 +71224,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>13</v>
@@ -69477,7 +71238,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>988</v>
+        <v>1043</v>
       </c>
       <c r="D10" s="9">
         <v>3</v>
@@ -69492,7 +71253,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>13</v>
@@ -69506,7 +71267,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>989</v>
+        <v>1044</v>
       </c>
       <c r="D11" s="16">
         <v>3</v>
@@ -69521,7 +71282,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>13</v>
@@ -69535,7 +71296,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>990</v>
+        <v>1045</v>
       </c>
       <c r="D12" s="9">
         <v>3</v>
@@ -69550,7 +71311,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>13</v>
@@ -69564,7 +71325,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>991</v>
+        <v>1046</v>
       </c>
       <c r="D13" s="16">
         <v>3</v>
@@ -69579,7 +71340,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>13</v>
@@ -69593,7 +71354,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>992</v>
+        <v>1047</v>
       </c>
       <c r="D14" s="9">
         <v>3</v>
@@ -69608,7 +71369,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>13</v>
@@ -69622,7 +71383,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>993</v>
+        <v>1048</v>
       </c>
       <c r="D15" s="16">
         <v>3</v>
@@ -69637,7 +71398,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>13</v>
@@ -69651,7 +71412,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>994</v>
+        <v>1049</v>
       </c>
       <c r="D16" s="9">
         <v>3</v>
@@ -69666,7 +71427,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>13</v>
@@ -69680,7 +71441,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>995</v>
+        <v>1050</v>
       </c>
       <c r="D17" s="19">
         <v>4</v>
@@ -69695,7 +71456,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>13</v>
@@ -69709,7 +71470,7 @@
         <v>826</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>996</v>
+        <v>1051</v>
       </c>
       <c r="D18" s="26">
         <v>5</v>
@@ -69724,7 +71485,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>13</v>
@@ -69738,7 +71499,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>997</v>
+        <v>1052</v>
       </c>
       <c r="D19" s="16">
         <v>3</v>
@@ -69753,7 +71514,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>13</v>
@@ -69767,7 +71528,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>998</v>
+        <v>1053</v>
       </c>
       <c r="D20" s="9">
         <v>3</v>
@@ -69782,7 +71543,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>13</v>
@@ -69796,7 +71557,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>999</v>
+        <v>1054</v>
       </c>
       <c r="D21" s="16">
         <v>3</v>
@@ -69811,7 +71572,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>13</v>
@@ -69825,7 +71586,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1000</v>
+        <v>1055</v>
       </c>
       <c r="D22" s="9">
         <v>3</v>
@@ -69840,7 +71601,7 @@
         <v>21</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>13</v>
@@ -69854,7 +71615,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>1001</v>
+        <v>1056</v>
       </c>
       <c r="D23" s="16">
         <v>3</v>
@@ -69869,7 +71630,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>13</v>
@@ -69883,7 +71644,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>1002</v>
+        <v>1057</v>
       </c>
       <c r="D24" s="9">
         <v>3</v>
@@ -69898,7 +71659,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>13</v>
@@ -69912,7 +71673,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>1003</v>
+        <v>1058</v>
       </c>
       <c r="D25" s="16">
         <v>3</v>
@@ -69927,7 +71688,7 @@
         <v>24</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>13</v>
@@ -69941,7 +71702,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>1004</v>
+        <v>1059</v>
       </c>
       <c r="D26" s="9">
         <v>3</v>
@@ -69956,7 +71717,7 @@
         <v>25</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>13</v>
@@ -69970,7 +71731,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>1005</v>
+        <v>1060</v>
       </c>
       <c r="D27" s="19">
         <v>4</v>
@@ -69985,7 +71746,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>13</v>
@@ -69999,7 +71760,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>1006</v>
+        <v>1061</v>
       </c>
       <c r="D28" s="13">
         <v>4</v>
@@ -70014,7 +71775,7 @@
         <v>27</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>13</v>
@@ -70028,7 +71789,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>1007</v>
+        <v>1062</v>
       </c>
       <c r="D29" s="16">
         <v>3</v>
@@ -70043,7 +71804,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>13</v>
@@ -70057,7 +71818,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1008</v>
+        <v>1063</v>
       </c>
       <c r="D30" s="9">
         <v>3</v>
@@ -70072,7 +71833,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>13</v>
@@ -70086,7 +71847,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>1009</v>
+        <v>1064</v>
       </c>
       <c r="D31" s="16">
         <v>3</v>
@@ -70101,7 +71862,7 @@
         <v>30</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>13</v>
@@ -70115,7 +71876,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1010</v>
+        <v>1065</v>
       </c>
       <c r="D32" s="9">
         <v>3</v>
@@ -70130,7 +71891,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>13</v>
@@ -70144,7 +71905,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>1011</v>
+        <v>1066</v>
       </c>
       <c r="D33" s="16">
         <v>3</v>
@@ -70159,7 +71920,7 @@
         <v>32</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>13</v>
@@ -70173,7 +71934,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>1012</v>
+        <v>1067</v>
       </c>
       <c r="D34" s="9">
         <v>3</v>
@@ -70188,7 +71949,7 @@
         <v>33</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>13</v>
@@ -70202,7 +71963,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>1013</v>
+        <v>1068</v>
       </c>
       <c r="D35" s="16">
         <v>3</v>
@@ -70217,7 +71978,7 @@
         <v>34</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>13</v>
@@ -70231,7 +71992,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>1014</v>
+        <v>1069</v>
       </c>
       <c r="D36" s="9">
         <v>3</v>
@@ -70246,7 +72007,7 @@
         <v>35</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>13</v>
@@ -70260,7 +72021,7 @@
         <v>21</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1015</v>
+        <v>1070</v>
       </c>
       <c r="D37" s="16">
         <v>3</v>
@@ -70275,7 +72036,7 @@
         <v>36</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>13</v>
@@ -70289,7 +72050,7 @@
         <v>120</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>1016</v>
+        <v>1071</v>
       </c>
       <c r="D38" s="13">
         <v>4</v>
@@ -70304,7 +72065,7 @@
         <v>37</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>13</v>
@@ -70318,7 +72079,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>1017</v>
+        <v>1072</v>
       </c>
       <c r="D39" s="16">
         <v>3</v>
@@ -70333,7 +72094,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>13</v>
@@ -70347,7 +72108,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1018</v>
+        <v>1073</v>
       </c>
       <c r="D40" s="9">
         <v>3</v>
@@ -70362,7 +72123,7 @@
         <v>39</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>13</v>
@@ -70376,7 +72137,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1019</v>
+        <v>1074</v>
       </c>
       <c r="D41" s="16">
         <v>3</v>
@@ -70391,7 +72152,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>13</v>
@@ -70405,7 +72166,7 @@
         <v>32</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1020</v>
+        <v>1075</v>
       </c>
       <c r="D42" s="9">
         <v>3</v>
@@ -70420,7 +72181,7 @@
         <v>41</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>13</v>
@@ -70434,7 +72195,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>1021</v>
+        <v>1076</v>
       </c>
       <c r="D43" s="16">
         <v>3</v>
@@ -70449,7 +72210,7 @@
         <v>42</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>13</v>
@@ -70463,7 +72224,7 @@
         <v>25</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1022</v>
+        <v>1077</v>
       </c>
       <c r="D44" s="9">
         <v>3</v>
@@ -70478,7 +72239,7 @@
         <v>43</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>13</v>
@@ -70492,7 +72253,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>1023</v>
+        <v>1078</v>
       </c>
       <c r="D45" s="16">
         <v>3</v>
@@ -70507,7 +72268,7 @@
         <v>44</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I45" s="14" t="s">
         <v>13</v>
@@ -70521,7 +72282,7 @@
         <v>32</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1024</v>
+        <v>1079</v>
       </c>
       <c r="D46" s="9">
         <v>3</v>
@@ -70536,7 +72297,7 @@
         <v>45</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>13</v>
@@ -70550,7 +72311,7 @@
         <v>18</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>1025</v>
+        <v>1080</v>
       </c>
       <c r="D47" s="16">
         <v>3</v>
@@ -70565,7 +72326,7 @@
         <v>46</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I47" s="14" t="s">
         <v>13</v>
@@ -70579,7 +72340,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>1026</v>
+        <v>1081</v>
       </c>
       <c r="D48" s="13">
         <v>4</v>
@@ -70594,7 +72355,7 @@
         <v>47</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>13</v>
@@ -70608,7 +72369,7 @@
         <v>32</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>1027</v>
+        <v>1082</v>
       </c>
       <c r="D49" s="16">
         <v>3</v>
@@ -70623,7 +72384,7 @@
         <v>48</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>13</v>
@@ -70637,7 +72398,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1028</v>
+        <v>1083</v>
       </c>
       <c r="D50" s="9">
         <v>3</v>
@@ -70652,7 +72413,7 @@
         <v>49</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>13</v>
@@ -70666,7 +72427,7 @@
         <v>19</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>1029</v>
+        <v>1084</v>
       </c>
       <c r="D51" s="16">
         <v>3</v>
@@ -70681,7 +72442,7 @@
         <v>50</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>13</v>
@@ -70695,7 +72456,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>1030</v>
+        <v>1085</v>
       </c>
       <c r="D52" s="9">
         <v>3</v>
@@ -70710,7 +72471,7 @@
         <v>51</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>13</v>
@@ -70724,7 +72485,7 @@
         <v>10</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>1031</v>
+        <v>1086</v>
       </c>
       <c r="D53" s="16">
         <v>3</v>
@@ -70739,7 +72500,7 @@
         <v>52</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I53" s="14" t="s">
         <v>13</v>
@@ -70753,7 +72514,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1032</v>
+        <v>1087</v>
       </c>
       <c r="D54" s="9">
         <v>3</v>
@@ -70768,7 +72529,7 @@
         <v>53</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>13</v>
@@ -70782,7 +72543,7 @@
         <v>74</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>1033</v>
+        <v>1088</v>
       </c>
       <c r="D55" s="19">
         <v>4</v>
@@ -70797,7 +72558,7 @@
         <v>54</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>13</v>
@@ -70811,7 +72572,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>1034</v>
+        <v>1089</v>
       </c>
       <c r="D56" s="13">
         <v>4</v>
@@ -70826,7 +72587,7 @@
         <v>55</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>13</v>
@@ -70840,7 +72601,7 @@
         <v>29</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>1035</v>
+        <v>1090</v>
       </c>
       <c r="D57" s="16">
         <v>3</v>
@@ -70855,7 +72616,7 @@
         <v>56</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I57" s="14" t="s">
         <v>13</v>
@@ -70869,7 +72630,7 @@
         <v>19</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>1036</v>
+        <v>1091</v>
       </c>
       <c r="D58" s="9">
         <v>3</v>
@@ -70884,7 +72645,7 @@
         <v>57</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>13</v>
@@ -70898,7 +72659,7 @@
         <v>17</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>1037</v>
+        <v>1092</v>
       </c>
       <c r="D59" s="16">
         <v>3</v>
@@ -70913,7 +72674,7 @@
         <v>58</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I59" s="14" t="s">
         <v>13</v>
@@ -70927,7 +72688,7 @@
         <v>25</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1038</v>
+        <v>1093</v>
       </c>
       <c r="D60" s="9">
         <v>3</v>
@@ -70942,7 +72703,7 @@
         <v>59</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>13</v>
@@ -70956,7 +72717,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>1039</v>
+        <v>1094</v>
       </c>
       <c r="D61" s="16">
         <v>3</v>
@@ -70971,7 +72732,7 @@
         <v>60</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I61" s="14" t="s">
         <v>13</v>
@@ -70985,7 +72746,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1040</v>
+        <v>1095</v>
       </c>
       <c r="D62" s="9">
         <v>3</v>
@@ -71000,7 +72761,7 @@
         <v>61</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>13</v>
@@ -71014,7 +72775,7 @@
         <v>27</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>1041</v>
+        <v>1096</v>
       </c>
       <c r="D63" s="16">
         <v>3</v>
@@ -71029,7 +72790,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I63" s="14" t="s">
         <v>13</v>
@@ -71040,10 +72801,10 @@
         <v>9</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>1042</v>
+        <v>1097</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>1043</v>
+        <v>1098</v>
       </c>
       <c r="D64" s="13">
         <v>4</v>
@@ -71058,7 +72819,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>13</v>
@@ -71072,7 +72833,7 @@
         <v>21</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>1044</v>
+        <v>1099</v>
       </c>
       <c r="D65" s="16">
         <v>3</v>
@@ -71087,7 +72848,7 @@
         <v>64</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I65" s="14" t="s">
         <v>13</v>
@@ -71101,7 +72862,7 @@
         <v>118</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>1045</v>
+        <v>1100</v>
       </c>
       <c r="D66" s="13">
         <v>4</v>
@@ -71116,7 +72877,7 @@
         <v>65</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>13</v>
@@ -71130,7 +72891,7 @@
         <v>32</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>1046</v>
+        <v>1101</v>
       </c>
       <c r="D67" s="16">
         <v>3</v>
@@ -71145,7 +72906,7 @@
         <v>66</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I67" s="14" t="s">
         <v>13</v>
@@ -71159,7 +72920,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1047</v>
+        <v>1102</v>
       </c>
       <c r="D68" s="9">
         <v>3</v>
@@ -71174,7 +72935,7 @@
         <v>67</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>13</v>
@@ -71188,7 +72949,7 @@
         <v>14</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>1048</v>
+        <v>1103</v>
       </c>
       <c r="D69" s="16">
         <v>3</v>
@@ -71203,7 +72964,7 @@
         <v>68</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I69" s="14" t="s">
         <v>13</v>
@@ -71217,7 +72978,7 @@
         <v>27</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>1049</v>
+        <v>1104</v>
       </c>
       <c r="D70" s="9">
         <v>3</v>
@@ -71232,7 +72993,7 @@
         <v>69</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>13</v>
@@ -71246,7 +73007,7 @@
         <v>20</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>1050</v>
+        <v>1105</v>
       </c>
       <c r="D71" s="16">
         <v>3</v>
@@ -71261,7 +73022,7 @@
         <v>70</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>13</v>
@@ -71275,7 +73036,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1051</v>
+        <v>1106</v>
       </c>
       <c r="D72" s="9">
         <v>3</v>
@@ -71290,7 +73051,7 @@
         <v>71</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>13</v>
@@ -71304,7 +73065,7 @@
         <v>21</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>1052</v>
+        <v>1107</v>
       </c>
       <c r="D73" s="16">
         <v>3</v>
@@ -71319,7 +73080,7 @@
         <v>72</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I73" s="14" t="s">
         <v>13</v>
@@ -71333,7 +73094,7 @@
         <v>25</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1053</v>
+        <v>1108</v>
       </c>
       <c r="D74" s="9">
         <v>3</v>
@@ -71348,7 +73109,7 @@
         <v>73</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>13</v>
@@ -71362,7 +73123,7 @@
         <v>29</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>1054</v>
+        <v>1109</v>
       </c>
       <c r="D75" s="16">
         <v>3</v>
@@ -71377,7 +73138,7 @@
         <v>74</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I75" s="14" t="s">
         <v>13</v>
@@ -71391,7 +73152,7 @@
         <v>67</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>1055</v>
+        <v>1110</v>
       </c>
       <c r="D76" s="13">
         <v>4</v>
@@ -71406,7 +73167,7 @@
         <v>75</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I76" s="11" t="s">
         <v>13</v>
@@ -71420,7 +73181,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>1056</v>
+        <v>1111</v>
       </c>
       <c r="D77" s="16">
         <v>3</v>
@@ -71435,7 +73196,7 @@
         <v>76</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>13</v>
@@ -71449,7 +73210,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>1057</v>
+        <v>1112</v>
       </c>
       <c r="D78" s="9">
         <v>3</v>
@@ -71464,7 +73225,7 @@
         <v>77</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>13</v>
@@ -71478,7 +73239,7 @@
         <v>32</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>1058</v>
+        <v>1113</v>
       </c>
       <c r="D79" s="16">
         <v>3</v>
@@ -71493,7 +73254,7 @@
         <v>78</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I79" s="14" t="s">
         <v>13</v>
@@ -71507,7 +73268,7 @@
         <v>58</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>1059</v>
+        <v>1114</v>
       </c>
       <c r="D80" s="13">
         <v>4</v>
@@ -71522,7 +73283,7 @@
         <v>79</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>13</v>
@@ -71536,7 +73297,7 @@
         <v>17</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>1060</v>
+        <v>1115</v>
       </c>
       <c r="D81" s="16">
         <v>3</v>
@@ -71551,7 +73312,7 @@
         <v>80</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I81" s="14" t="s">
         <v>13</v>
@@ -71565,7 +73326,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>1061</v>
+        <v>1116</v>
       </c>
       <c r="D82" s="9">
         <v>3</v>
@@ -71580,7 +73341,7 @@
         <v>81</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I82" s="7" t="s">
         <v>13</v>
@@ -71594,7 +73355,7 @@
         <v>14</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>1062</v>
+        <v>1117</v>
       </c>
       <c r="D83" s="16">
         <v>3</v>
@@ -71609,7 +73370,7 @@
         <v>82</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I83" s="14" t="s">
         <v>13</v>
@@ -71623,7 +73384,7 @@
         <v>14</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>1063</v>
+        <v>1118</v>
       </c>
       <c r="D84" s="9">
         <v>3</v>
@@ -71638,7 +73399,7 @@
         <v>83</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>13</v>
@@ -71652,7 +73413,7 @@
         <v>26</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>1064</v>
+        <v>1119</v>
       </c>
       <c r="D85" s="16">
         <v>3</v>
@@ -71667,7 +73428,7 @@
         <v>84</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I85" s="14" t="s">
         <v>13</v>
@@ -71681,7 +73442,7 @@
         <v>10</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>1065</v>
+        <v>1120</v>
       </c>
       <c r="D86" s="9">
         <v>3</v>
@@ -71696,7 +73457,7 @@
         <v>85</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>13</v>
@@ -71710,7 +73471,7 @@
         <v>26</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>1066</v>
+        <v>1121</v>
       </c>
       <c r="D87" s="16">
         <v>3</v>
@@ -71725,7 +73486,7 @@
         <v>86</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I87" s="14" t="s">
         <v>13</v>
@@ -71739,7 +73500,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1067</v>
+        <v>1122</v>
       </c>
       <c r="D88" s="9">
         <v>3</v>
@@ -71754,7 +73515,7 @@
         <v>87</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I88" s="7" t="s">
         <v>13</v>
@@ -71768,7 +73529,7 @@
         <v>19</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>1068</v>
+        <v>1123</v>
       </c>
       <c r="D89" s="16">
         <v>3</v>
@@ -71783,7 +73544,7 @@
         <v>88</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I89" s="14" t="s">
         <v>13</v>
@@ -71797,7 +73558,7 @@
         <v>23</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>1069</v>
+        <v>1124</v>
       </c>
       <c r="D90" s="13">
         <v>4</v>
@@ -71812,7 +73573,7 @@
         <v>89</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>13</v>
@@ -71826,7 +73587,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>1070</v>
+        <v>1125</v>
       </c>
       <c r="D91" s="16">
         <v>3</v>
@@ -71841,7 +73602,7 @@
         <v>90</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I91" s="14" t="s">
         <v>13</v>
@@ -71855,7 +73616,7 @@
         <v>10</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1071</v>
+        <v>1126</v>
       </c>
       <c r="D92" s="9">
         <v>3</v>
@@ -71870,7 +73631,7 @@
         <v>91</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>13</v>
@@ -71884,7 +73645,7 @@
         <v>14</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>1072</v>
+        <v>1127</v>
       </c>
       <c r="D93" s="16">
         <v>3</v>
@@ -71899,7 +73660,7 @@
         <v>92</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I93" s="14" t="s">
         <v>13</v>
@@ -71913,7 +73674,7 @@
         <v>19</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1073</v>
+        <v>1128</v>
       </c>
       <c r="D94" s="9">
         <v>3</v>
@@ -71928,7 +73689,7 @@
         <v>93</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>13</v>
@@ -71942,7 +73703,7 @@
         <v>20</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>1074</v>
+        <v>1129</v>
       </c>
       <c r="D95" s="16">
         <v>3</v>
@@ -71957,7 +73718,7 @@
         <v>94</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I95" s="14" t="s">
         <v>13</v>
@@ -71971,7 +73732,7 @@
         <v>25</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1075</v>
+        <v>1130</v>
       </c>
       <c r="D96" s="9">
         <v>3</v>
@@ -71986,7 +73747,7 @@
         <v>95</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I96" s="7" t="s">
         <v>13</v>
@@ -72000,7 +73761,7 @@
         <v>19</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>1076</v>
+        <v>1131</v>
       </c>
       <c r="D97" s="16">
         <v>3</v>
@@ -72015,7 +73776,7 @@
         <v>96</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I97" s="14" t="s">
         <v>13</v>
@@ -72029,7 +73790,7 @@
         <v>26</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1077</v>
+        <v>1132</v>
       </c>
       <c r="D98" s="9">
         <v>3</v>
@@ -72044,7 +73805,7 @@
         <v>97</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>13</v>
@@ -72058,7 +73819,7 @@
         <v>826</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>1078</v>
+        <v>1133</v>
       </c>
       <c r="D99" s="23">
         <v>5</v>
@@ -72073,7 +73834,7 @@
         <v>98</v>
       </c>
       <c r="H99" s="21" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I99" s="21" t="s">
         <v>13</v>
@@ -72087,7 +73848,7 @@
         <v>76</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>1079</v>
+        <v>1134</v>
       </c>
       <c r="D100" s="13">
         <v>4</v>
@@ -72102,7 +73863,7 @@
         <v>99</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>13</v>
@@ -72116,7 +73877,7 @@
         <v>18</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>1080</v>
+        <v>1135</v>
       </c>
       <c r="D101" s="16">
         <v>3</v>
@@ -72131,7 +73892,7 @@
         <v>100</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I101" s="14" t="s">
         <v>13</v>
@@ -72145,7 +73906,7 @@
         <v>26</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1081</v>
+        <v>1136</v>
       </c>
       <c r="D102" s="9">
         <v>3</v>
@@ -72160,7 +73921,7 @@
         <v>101</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>13</v>
@@ -72174,7 +73935,7 @@
         <v>29</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>1082</v>
+        <v>1137</v>
       </c>
       <c r="D103" s="16">
         <v>3</v>
@@ -72189,7 +73950,7 @@
         <v>102</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I103" s="14" t="s">
         <v>13</v>
@@ -72203,7 +73964,7 @@
         <v>27</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1083</v>
+        <v>1138</v>
       </c>
       <c r="D104" s="9">
         <v>3</v>
@@ -72218,7 +73979,7 @@
         <v>103</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>13</v>
@@ -72232,7 +73993,7 @@
         <v>29</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>1084</v>
+        <v>1139</v>
       </c>
       <c r="D105" s="16">
         <v>3</v>
@@ -72247,7 +74008,7 @@
         <v>104</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I105" s="14" t="s">
         <v>13</v>
@@ -72261,7 +74022,7 @@
         <v>32</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>1085</v>
+        <v>1140</v>
       </c>
       <c r="D106" s="9">
         <v>3</v>
@@ -72276,7 +74037,7 @@
         <v>105</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>13</v>
@@ -72290,7 +74051,7 @@
         <v>29</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>1086</v>
+        <v>1141</v>
       </c>
       <c r="D107" s="16">
         <v>3</v>
@@ -72305,7 +74066,7 @@
         <v>106</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I107" s="14" t="s">
         <v>13</v>
@@ -72319,7 +74080,7 @@
         <v>25</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>1087</v>
+        <v>1142</v>
       </c>
       <c r="D108" s="9">
         <v>3</v>
@@ -72334,7 +74095,7 @@
         <v>107</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>13</v>
@@ -72348,7 +74109,7 @@
         <v>37</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>1088</v>
+        <v>1143</v>
       </c>
       <c r="D109" s="19">
         <v>4</v>
@@ -72363,7 +74124,7 @@
         <v>108</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I109" s="17" t="s">
         <v>13</v>
@@ -72377,7 +74138,7 @@
         <v>18</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1089</v>
+        <v>1144</v>
       </c>
       <c r="D110" s="9">
         <v>3</v>
@@ -72392,7 +74153,7 @@
         <v>109</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>13</v>
@@ -72406,7 +74167,7 @@
         <v>26</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>1090</v>
+        <v>1145</v>
       </c>
       <c r="D111" s="16">
         <v>3</v>
@@ -72421,7 +74182,7 @@
         <v>110</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I111" s="14" t="s">
         <v>13</v>
@@ -72435,7 +74196,7 @@
         <v>24</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1091</v>
+        <v>1146</v>
       </c>
       <c r="D112" s="9">
         <v>3</v>
@@ -72450,7 +74211,7 @@
         <v>111</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>13</v>
@@ -72464,7 +74225,7 @@
         <v>25</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>1092</v>
+        <v>1147</v>
       </c>
       <c r="D113" s="16">
         <v>3</v>
@@ -72479,7 +74240,7 @@
         <v>112</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I113" s="14" t="s">
         <v>13</v>
@@ -72493,7 +74254,7 @@
         <v>19</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>1093</v>
+        <v>1148</v>
       </c>
       <c r="D114" s="9">
         <v>3</v>
@@ -72508,7 +74269,7 @@
         <v>113</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>13</v>
@@ -72522,7 +74283,7 @@
         <v>17</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>1094</v>
+        <v>1149</v>
       </c>
       <c r="D115" s="16">
         <v>3</v>
@@ -72537,7 +74298,7 @@
         <v>114</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I115" s="14" t="s">
         <v>13</v>
@@ -72551,7 +74312,7 @@
         <v>19</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1095</v>
+        <v>1150</v>
       </c>
       <c r="D116" s="9">
         <v>3</v>
@@ -72566,7 +74327,7 @@
         <v>115</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I116" s="7" t="s">
         <v>13</v>
@@ -72580,7 +74341,7 @@
         <v>29</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>1096</v>
+        <v>1151</v>
       </c>
       <c r="D117" s="16">
         <v>3</v>
@@ -72595,7 +74356,7 @@
         <v>116</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I117" s="14" t="s">
         <v>13</v>
@@ -72609,7 +74370,7 @@
         <v>248</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>1097</v>
+        <v>1152</v>
       </c>
       <c r="D118" s="13">
         <v>4</v>
@@ -72624,7 +74385,7 @@
         <v>117</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>13</v>
@@ -72638,7 +74399,7 @@
         <v>32</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>1098</v>
+        <v>1153</v>
       </c>
       <c r="D119" s="16">
         <v>3</v>
@@ -72653,7 +74414,7 @@
         <v>118</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I119" s="14" t="s">
         <v>13</v>
@@ -72667,7 +74428,7 @@
         <v>17</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>1099</v>
+        <v>1154</v>
       </c>
       <c r="D120" s="9">
         <v>3</v>
@@ -72682,7 +74443,7 @@
         <v>119</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>13</v>
@@ -72696,7 +74457,7 @@
         <v>14</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>1100</v>
+        <v>1155</v>
       </c>
       <c r="D121" s="16">
         <v>3</v>
@@ -72711,7 +74472,7 @@
         <v>120</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I121" s="14" t="s">
         <v>13</v>
@@ -72725,7 +74486,7 @@
         <v>171</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>1101</v>
+        <v>1156</v>
       </c>
       <c r="D122" s="13">
         <v>4</v>
@@ -72740,7 +74501,7 @@
         <v>121</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I122" s="11" t="s">
         <v>13</v>
@@ -72754,7 +74515,7 @@
         <v>21</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>1102</v>
+        <v>1157</v>
       </c>
       <c r="D123" s="16">
         <v>3</v>
@@ -72769,7 +74530,7 @@
         <v>122</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I123" s="14" t="s">
         <v>13</v>
@@ -72783,7 +74544,7 @@
         <v>20</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>1103</v>
+        <v>1158</v>
       </c>
       <c r="D124" s="9">
         <v>3</v>
@@ -72798,7 +74559,7 @@
         <v>123</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>13</v>
@@ -72812,7 +74573,7 @@
         <v>32</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>1104</v>
+        <v>1159</v>
       </c>
       <c r="D125" s="16">
         <v>3</v>
@@ -72827,7 +74588,7 @@
         <v>124</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I125" s="14" t="s">
         <v>13</v>
@@ -72841,7 +74602,7 @@
         <v>25</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>1105</v>
+        <v>1160</v>
       </c>
       <c r="D126" s="9">
         <v>3</v>
@@ -72856,7 +74617,7 @@
         <v>125</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I126" s="7" t="s">
         <v>13</v>
@@ -72870,7 +74631,7 @@
         <v>10</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>1106</v>
+        <v>1161</v>
       </c>
       <c r="D127" s="16">
         <v>3</v>
@@ -72885,7 +74646,7 @@
         <v>126</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I127" s="14" t="s">
         <v>13</v>
@@ -72899,7 +74660,7 @@
         <v>21</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1107</v>
+        <v>1162</v>
       </c>
       <c r="D128" s="9">
         <v>3</v>
@@ -72914,7 +74675,7 @@
         <v>127</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I128" s="7" t="s">
         <v>13</v>
@@ -72928,7 +74689,7 @@
         <v>146</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>1108</v>
+        <v>1163</v>
       </c>
       <c r="D129" s="19">
         <v>4</v>
@@ -72943,7 +74704,7 @@
         <v>128</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I129" s="17" t="s">
         <v>13</v>
@@ -72957,7 +74718,7 @@
         <v>25</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>1109</v>
+        <v>1164</v>
       </c>
       <c r="D130" s="9">
         <v>3</v>
@@ -72972,7 +74733,7 @@
         <v>129</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I130" s="7" t="s">
         <v>13</v>
@@ -72986,7 +74747,7 @@
         <v>32</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>1110</v>
+        <v>1165</v>
       </c>
       <c r="D131" s="16">
         <v>3</v>
@@ -73001,7 +74762,7 @@
         <v>130</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>13</v>
@@ -73015,7 +74776,7 @@
         <v>24</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>1111</v>
+        <v>1166</v>
       </c>
       <c r="D132" s="9">
         <v>3</v>
@@ -73030,7 +74791,7 @@
         <v>131</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I132" s="7" t="s">
         <v>13</v>
@@ -73044,7 +74805,7 @@
         <v>21</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>1112</v>
+        <v>1167</v>
       </c>
       <c r="D133" s="16">
         <v>3</v>
@@ -73059,7 +74820,7 @@
         <v>132</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I133" s="14" t="s">
         <v>13</v>
@@ -73073,7 +74834,7 @@
         <v>24</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>1113</v>
+        <v>1168</v>
       </c>
       <c r="D134" s="9">
         <v>3</v>
@@ -73088,7 +74849,7 @@
         <v>133</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I134" s="7" t="s">
         <v>13</v>
@@ -73102,7 +74863,7 @@
         <v>26</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>1114</v>
+        <v>1169</v>
       </c>
       <c r="D135" s="16">
         <v>3</v>
@@ -73117,7 +74878,7 @@
         <v>134</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I135" s="14" t="s">
         <v>13</v>
@@ -73131,7 +74892,7 @@
         <v>29</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>1115</v>
+        <v>1170</v>
       </c>
       <c r="D136" s="9">
         <v>3</v>
@@ -73146,7 +74907,7 @@
         <v>135</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>13</v>
@@ -73160,7 +74921,7 @@
         <v>14</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>1116</v>
+        <v>1171</v>
       </c>
       <c r="D137" s="16">
         <v>3</v>
@@ -73175,7 +74936,7 @@
         <v>136</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I137" s="14" t="s">
         <v>13</v>
@@ -73189,7 +74950,7 @@
         <v>38</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>1117</v>
+        <v>1172</v>
       </c>
       <c r="D138" s="13">
         <v>4</v>
@@ -73204,7 +74965,7 @@
         <v>137</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I138" s="11" t="s">
         <v>13</v>
@@ -73218,7 +74979,7 @@
         <v>32</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>1118</v>
+        <v>1173</v>
       </c>
       <c r="D139" s="16">
         <v>3</v>
@@ -73233,7 +74994,7 @@
         <v>138</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I139" s="14" t="s">
         <v>13</v>
@@ -73247,7 +75008,7 @@
         <v>32</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>1119</v>
+        <v>1174</v>
       </c>
       <c r="D140" s="9">
         <v>3</v>
@@ -73262,7 +75023,7 @@
         <v>139</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I140" s="7" t="s">
         <v>13</v>
@@ -73276,7 +75037,7 @@
         <v>17</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>1120</v>
+        <v>1175</v>
       </c>
       <c r="D141" s="16">
         <v>3</v>
@@ -73291,7 +75052,7 @@
         <v>140</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I141" s="14" t="s">
         <v>13</v>
@@ -73305,7 +75066,7 @@
         <v>14</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>1121</v>
+        <v>1176</v>
       </c>
       <c r="D142" s="9">
         <v>3</v>
@@ -73320,7 +75081,7 @@
         <v>141</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I142" s="7" t="s">
         <v>13</v>
@@ -73334,7 +75095,7 @@
         <v>29</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>1122</v>
+        <v>1177</v>
       </c>
       <c r="D143" s="16">
         <v>3</v>
@@ -73349,7 +75110,7 @@
         <v>142</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I143" s="14" t="s">
         <v>13</v>
@@ -73363,7 +75124,7 @@
         <v>17</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>1123</v>
+        <v>1178</v>
       </c>
       <c r="D144" s="9">
         <v>3</v>
@@ -73378,7 +75139,7 @@
         <v>143</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>13</v>
@@ -73392,7 +75153,7 @@
         <v>26</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>1124</v>
+        <v>1179</v>
       </c>
       <c r="D145" s="16">
         <v>3</v>
@@ -73407,7 +75168,7 @@
         <v>144</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I145" s="14" t="s">
         <v>13</v>
@@ -73421,7 +75182,7 @@
         <v>35</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>1125</v>
+        <v>1180</v>
       </c>
       <c r="D146" s="13">
         <v>4</v>
@@ -73436,7 +75197,7 @@
         <v>145</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I146" s="11" t="s">
         <v>13</v>
@@ -73450,7 +75211,7 @@
         <v>32</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>1126</v>
+        <v>1181</v>
       </c>
       <c r="D147" s="16">
         <v>3</v>
@@ -73465,7 +75226,7 @@
         <v>146</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I147" s="14" t="s">
         <v>13</v>
@@ -73479,7 +75240,7 @@
         <v>29</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>1127</v>
+        <v>1182</v>
       </c>
       <c r="D148" s="9">
         <v>3</v>
@@ -73494,7 +75255,7 @@
         <v>147</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I148" s="7" t="s">
         <v>13</v>
@@ -73508,7 +75269,7 @@
         <v>10</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>1128</v>
+        <v>1183</v>
       </c>
       <c r="D149" s="16">
         <v>3</v>
@@ -73523,7 +75284,7 @@
         <v>148</v>
       </c>
       <c r="H149" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I149" s="14" t="s">
         <v>13</v>
@@ -73537,7 +75298,7 @@
         <v>14</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>1129</v>
+        <v>1184</v>
       </c>
       <c r="D150" s="9">
         <v>3</v>
@@ -73552,7 +75313,7 @@
         <v>149</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I150" s="7" t="s">
         <v>13</v>
@@ -73566,7 +75327,7 @@
         <v>32</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>1130</v>
+        <v>1185</v>
       </c>
       <c r="D151" s="16">
         <v>3</v>
@@ -73581,7 +75342,7 @@
         <v>150</v>
       </c>
       <c r="H151" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I151" s="14" t="s">
         <v>13</v>
@@ -73595,7 +75356,7 @@
         <v>14</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>1131</v>
+        <v>1186</v>
       </c>
       <c r="D152" s="9">
         <v>3</v>
@@ -73610,7 +75371,7 @@
         <v>151</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I152" s="7" t="s">
         <v>13</v>
@@ -73624,7 +75385,7 @@
         <v>26</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>1132</v>
+        <v>1187</v>
       </c>
       <c r="D153" s="16">
         <v>3</v>
@@ -73639,7 +75400,7 @@
         <v>152</v>
       </c>
       <c r="H153" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I153" s="14" t="s">
         <v>13</v>
@@ -73653,7 +75414,7 @@
         <v>19</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>1133</v>
+        <v>1188</v>
       </c>
       <c r="D154" s="9">
         <v>3</v>
@@ -73668,7 +75429,7 @@
         <v>153</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I154" s="7" t="s">
         <v>13</v>
@@ -73682,7 +75443,7 @@
         <v>559</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>1134</v>
+        <v>1189</v>
       </c>
       <c r="D155" s="19">
         <v>4</v>
@@ -73697,7 +75458,7 @@
         <v>154</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I155" s="17" t="s">
         <v>13</v>
@@ -73711,7 +75472,7 @@
         <v>14</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>1135</v>
+        <v>1190</v>
       </c>
       <c r="D156" s="9">
         <v>3</v>
@@ -73726,7 +75487,7 @@
         <v>155</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I156" s="7" t="s">
         <v>13</v>
@@ -73740,7 +75501,7 @@
         <v>19</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>1136</v>
+        <v>1191</v>
       </c>
       <c r="D157" s="16">
         <v>3</v>
@@ -73755,7 +75516,7 @@
         <v>156</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I157" s="14" t="s">
         <v>13</v>
@@ -73769,7 +75530,7 @@
         <v>334</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>1137</v>
+        <v>1192</v>
       </c>
       <c r="D158" s="13">
         <v>4</v>
@@ -73784,7 +75545,7 @@
         <v>157</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I158" s="11" t="s">
         <v>13</v>
@@ -73798,7 +75559,7 @@
         <v>20</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>1138</v>
+        <v>1193</v>
       </c>
       <c r="D159" s="16">
         <v>3</v>
@@ -73813,7 +75574,7 @@
         <v>158</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I159" s="14" t="s">
         <v>13</v>
@@ -73827,7 +75588,7 @@
         <v>14</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>1139</v>
+        <v>1194</v>
       </c>
       <c r="D160" s="9">
         <v>3</v>
@@ -73842,7 +75603,7 @@
         <v>159</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I160" s="7" t="s">
         <v>13</v>
@@ -73856,7 +75617,7 @@
         <v>25</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>1140</v>
+        <v>1195</v>
       </c>
       <c r="D161" s="16">
         <v>3</v>
@@ -73871,7 +75632,7 @@
         <v>160</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I161" s="14" t="s">
         <v>13</v>
@@ -73885,7 +75646,7 @@
         <v>19</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>1141</v>
+        <v>1196</v>
       </c>
       <c r="D162" s="9">
         <v>3</v>
@@ -73900,7 +75661,7 @@
         <v>161</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I162" s="7" t="s">
         <v>13</v>
@@ -73914,7 +75675,7 @@
         <v>24</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>1142</v>
+        <v>1197</v>
       </c>
       <c r="D163" s="16">
         <v>3</v>
@@ -73929,7 +75690,7 @@
         <v>162</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I163" s="14" t="s">
         <v>13</v>
@@ -73943,7 +75704,7 @@
         <v>32</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>1143</v>
+        <v>1198</v>
       </c>
       <c r="D164" s="9">
         <v>3</v>
@@ -73958,7 +75719,7 @@
         <v>163</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I164" s="7" t="s">
         <v>13</v>
@@ -73972,7 +75733,7 @@
         <v>18</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>1144</v>
+        <v>1199</v>
       </c>
       <c r="D165" s="16">
         <v>3</v>
@@ -73987,7 +75748,7 @@
         <v>164</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I165" s="14" t="s">
         <v>13</v>
@@ -74001,7 +75762,7 @@
         <v>32</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>1145</v>
+        <v>1200</v>
       </c>
       <c r="D166" s="9">
         <v>3</v>
@@ -74016,7 +75777,7 @@
         <v>165</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I166" s="7" t="s">
         <v>13</v>
@@ -74030,7 +75791,7 @@
         <v>24</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>1146</v>
+        <v>1201</v>
       </c>
       <c r="D167" s="16">
         <v>3</v>
@@ -74045,7 +75806,7 @@
         <v>166</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I167" s="14" t="s">
         <v>13</v>
@@ -74059,7 +75820,7 @@
         <v>150</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>1147</v>
+        <v>1202</v>
       </c>
       <c r="D168" s="13">
         <v>4</v>
@@ -74074,7 +75835,7 @@
         <v>167</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I168" s="11" t="s">
         <v>13</v>
@@ -74088,7 +75849,7 @@
         <v>17</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>1148</v>
+        <v>1203</v>
       </c>
       <c r="D169" s="16">
         <v>3</v>
@@ -74103,7 +75864,7 @@
         <v>168</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I169" s="14" t="s">
         <v>13</v>
@@ -74117,7 +75878,7 @@
         <v>19</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>1149</v>
+        <v>1204</v>
       </c>
       <c r="D170" s="9">
         <v>3</v>
@@ -74132,7 +75893,7 @@
         <v>169</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I170" s="7" t="s">
         <v>13</v>
@@ -74146,7 +75907,7 @@
         <v>24</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>1150</v>
+        <v>1205</v>
       </c>
       <c r="D171" s="16">
         <v>3</v>
@@ -74161,7 +75922,7 @@
         <v>170</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I171" s="14" t="s">
         <v>13</v>
@@ -74175,7 +75936,7 @@
         <v>20</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>1151</v>
+        <v>1206</v>
       </c>
       <c r="D172" s="9">
         <v>3</v>
@@ -74190,7 +75951,7 @@
         <v>171</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I172" s="7" t="s">
         <v>13</v>
@@ -74204,7 +75965,7 @@
         <v>18</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>1152</v>
+        <v>1207</v>
       </c>
       <c r="D173" s="16">
         <v>3</v>
@@ -74219,7 +75980,7 @@
         <v>172</v>
       </c>
       <c r="H173" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I173" s="14" t="s">
         <v>13</v>
@@ -74233,7 +75994,7 @@
         <v>21</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>1153</v>
+        <v>1208</v>
       </c>
       <c r="D174" s="9">
         <v>3</v>
@@ -74248,7 +76009,7 @@
         <v>173</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I174" s="7" t="s">
         <v>13</v>
@@ -74262,7 +76023,7 @@
         <v>14</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>1154</v>
+        <v>1209</v>
       </c>
       <c r="D175" s="16">
         <v>3</v>
@@ -74277,7 +76038,7 @@
         <v>174</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I175" s="14" t="s">
         <v>13</v>
@@ -74291,7 +76052,7 @@
         <v>151</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>1155</v>
+        <v>1210</v>
       </c>
       <c r="D176" s="26">
         <v>5</v>
@@ -74306,7 +76067,7 @@
         <v>175</v>
       </c>
       <c r="H176" s="24" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I176" s="24" t="s">
         <v>13</v>
@@ -74320,7 +76081,7 @@
         <v>37</v>
       </c>
       <c r="C177" s="18" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D177" s="19">
         <v>4</v>
@@ -74335,7 +76096,7 @@
         <v>176</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I177" s="17" t="s">
         <v>13</v>
@@ -74349,7 +76110,7 @@
         <v>20</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D178" s="16">
         <v>3</v>
@@ -74364,7 +76125,7 @@
         <v>176</v>
       </c>
       <c r="H178" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I178" s="14" t="s">
         <v>13</v>
@@ -74378,7 +76139,7 @@
         <v>25</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D179" s="16">
         <v>3</v>
@@ -74393,7 +76154,7 @@
         <v>176</v>
       </c>
       <c r="H179" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I179" s="14" t="s">
         <v>13</v>
@@ -74407,7 +76168,7 @@
         <v>20</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D180" s="16">
         <v>3</v>
@@ -74422,7 +76183,7 @@
         <v>176</v>
       </c>
       <c r="H180" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I180" s="14" t="s">
         <v>13</v>
@@ -74436,7 +76197,7 @@
         <v>21</v>
       </c>
       <c r="C181" s="15" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D181" s="16">
         <v>3</v>
@@ -74451,7 +76212,7 @@
         <v>176</v>
       </c>
       <c r="H181" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I181" s="14" t="s">
         <v>13</v>
@@ -74465,7 +76226,7 @@
         <v>26</v>
       </c>
       <c r="C182" s="15" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D182" s="16">
         <v>3</v>
@@ -74480,7 +76241,7 @@
         <v>176</v>
       </c>
       <c r="H182" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I182" s="14" t="s">
         <v>13</v>
@@ -74494,7 +76255,7 @@
         <v>32</v>
       </c>
       <c r="C183" s="15" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D183" s="16">
         <v>3</v>
@@ -74509,7 +76270,7 @@
         <v>176</v>
       </c>
       <c r="H183" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I183" s="14" t="s">
         <v>13</v>
@@ -74523,7 +76284,7 @@
         <v>32</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D184" s="16">
         <v>3</v>
@@ -74538,7 +76299,7 @@
         <v>176</v>
       </c>
       <c r="H184" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I184" s="14" t="s">
         <v>13</v>
@@ -74552,7 +76313,7 @@
         <v>18</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D185" s="16">
         <v>3</v>
@@ -74567,7 +76328,7 @@
         <v>176</v>
       </c>
       <c r="H185" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I185" s="14" t="s">
         <v>13</v>
@@ -74581,7 +76342,7 @@
         <v>250</v>
       </c>
       <c r="C186" s="18" t="s">
-        <v>1156</v>
+        <v>1211</v>
       </c>
       <c r="D186" s="19">
         <v>4</v>
@@ -74596,7 +76357,7 @@
         <v>176</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I186" s="17" t="s">
         <v>13</v>
@@ -74610,7 +76371,7 @@
         <v>26</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>1157</v>
+        <v>1212</v>
       </c>
       <c r="D187" s="9">
         <v>3</v>
@@ -74625,7 +76386,7 @@
         <v>177</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I187" s="7" t="s">
         <v>13</v>
@@ -74639,7 +76400,7 @@
         <v>20</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>1158</v>
+        <v>1213</v>
       </c>
       <c r="D188" s="16">
         <v>3</v>
@@ -74654,7 +76415,7 @@
         <v>178</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I188" s="14" t="s">
         <v>13</v>
@@ -74668,7 +76429,7 @@
         <v>20</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>1159</v>
+        <v>1214</v>
       </c>
       <c r="D189" s="9">
         <v>3</v>
@@ -74683,7 +76444,7 @@
         <v>179</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I189" s="7" t="s">
         <v>13</v>
@@ -74697,7 +76458,7 @@
         <v>20</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>1160</v>
+        <v>1215</v>
       </c>
       <c r="D190" s="16">
         <v>3</v>
@@ -74712,7 +76473,7 @@
         <v>180</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I190" s="14" t="s">
         <v>13</v>
@@ -74726,7 +76487,7 @@
         <v>29</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>1161</v>
+        <v>1216</v>
       </c>
       <c r="D191" s="9">
         <v>3</v>
@@ -74741,7 +76502,7 @@
         <v>181</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I191" s="7" t="s">
         <v>13</v>
@@ -74755,7 +76516,7 @@
         <v>32</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>1162</v>
+        <v>1217</v>
       </c>
       <c r="D192" s="16">
         <v>3</v>
@@ -74770,7 +76531,7 @@
         <v>182</v>
       </c>
       <c r="H192" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I192" s="14" t="s">
         <v>13</v>
@@ -74784,7 +76545,7 @@
         <v>17</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>1163</v>
+        <v>1218</v>
       </c>
       <c r="D193" s="9">
         <v>3</v>
@@ -74799,7 +76560,7 @@
         <v>183</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I193" s="7" t="s">
         <v>13</v>
@@ -74813,7 +76574,7 @@
         <v>10</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>1164</v>
+        <v>1219</v>
       </c>
       <c r="D194" s="16">
         <v>3</v>
@@ -74828,7 +76589,7 @@
         <v>184</v>
       </c>
       <c r="H194" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I194" s="14" t="s">
         <v>13</v>
@@ -74842,7 +76603,7 @@
         <v>72</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>1165</v>
+        <v>1220</v>
       </c>
       <c r="D195" s="13">
         <v>4</v>
@@ -74857,7 +76618,7 @@
         <v>185</v>
       </c>
       <c r="H195" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I195" s="11" t="s">
         <v>13</v>
@@ -74871,7 +76632,7 @@
         <v>27</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>1166</v>
+        <v>1221</v>
       </c>
       <c r="D196" s="16">
         <v>3</v>
@@ -74886,7 +76647,7 @@
         <v>186</v>
       </c>
       <c r="H196" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I196" s="14" t="s">
         <v>13</v>
@@ -74900,7 +76661,7 @@
         <v>21</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>1167</v>
+        <v>1222</v>
       </c>
       <c r="D197" s="9">
         <v>3</v>
@@ -74915,7 +76676,7 @@
         <v>187</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I197" s="7" t="s">
         <v>13</v>
@@ -74929,7 +76690,7 @@
         <v>17</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>1168</v>
+        <v>1223</v>
       </c>
       <c r="D198" s="16">
         <v>3</v>
@@ -74944,7 +76705,7 @@
         <v>188</v>
       </c>
       <c r="H198" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I198" s="14" t="s">
         <v>13</v>
@@ -74958,7 +76719,7 @@
         <v>10</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>1169</v>
+        <v>1224</v>
       </c>
       <c r="D199" s="9">
         <v>3</v>
@@ -74973,7 +76734,7 @@
         <v>189</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I199" s="7" t="s">
         <v>13</v>
@@ -74987,7 +76748,7 @@
         <v>20</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>1170</v>
+        <v>1225</v>
       </c>
       <c r="D200" s="16">
         <v>3</v>
@@ -75002,7 +76763,7 @@
         <v>190</v>
       </c>
       <c r="H200" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I200" s="14" t="s">
         <v>13</v>
@@ -75016,7 +76777,7 @@
         <v>19</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>1171</v>
+        <v>1226</v>
       </c>
       <c r="D201" s="9">
         <v>3</v>
@@ -75031,7 +76792,7 @@
         <v>191</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I201" s="7" t="s">
         <v>13</v>
@@ -75045,7 +76806,7 @@
         <v>107</v>
       </c>
       <c r="C202" s="18" t="s">
-        <v>1172</v>
+        <v>1227</v>
       </c>
       <c r="D202" s="19">
         <v>4</v>
@@ -75060,7 +76821,7 @@
         <v>192</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I202" s="17" t="s">
         <v>13</v>
@@ -75074,7 +76835,7 @@
         <v>27</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>1173</v>
+        <v>1228</v>
       </c>
       <c r="D203" s="9">
         <v>3</v>
@@ -75089,7 +76850,7 @@
         <v>193</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I203" s="7" t="s">
         <v>13</v>
@@ -75103,7 +76864,7 @@
         <v>382</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>1174</v>
+        <v>1229</v>
       </c>
       <c r="D204" s="19">
         <v>4</v>
@@ -75118,7 +76879,7 @@
         <v>194</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I204" s="17" t="s">
         <v>13</v>
@@ -75132,7 +76893,7 @@
         <v>19</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>1175</v>
+        <v>1230</v>
       </c>
       <c r="D205" s="9">
         <v>3</v>
@@ -75147,7 +76908,7 @@
         <v>195</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I205" s="7" t="s">
         <v>13</v>
@@ -75161,7 +76922,7 @@
         <v>19</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>1176</v>
+        <v>1231</v>
       </c>
       <c r="D206" s="16">
         <v>3</v>
@@ -75176,7 +76937,7 @@
         <v>196</v>
       </c>
       <c r="H206" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I206" s="14" t="s">
         <v>13</v>
@@ -75190,7 +76951,7 @@
         <v>29</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>1177</v>
+        <v>1232</v>
       </c>
       <c r="D207" s="9">
         <v>3</v>
@@ -75205,7 +76966,7 @@
         <v>197</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I207" s="7" t="s">
         <v>13</v>
@@ -75219,7 +76980,7 @@
         <v>10</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>1178</v>
+        <v>1233</v>
       </c>
       <c r="D208" s="16">
         <v>3</v>
@@ -75234,7 +76995,7 @@
         <v>198</v>
       </c>
       <c r="H208" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I208" s="14" t="s">
         <v>13</v>
@@ -75248,7 +77009,7 @@
         <v>24</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>1179</v>
+        <v>1234</v>
       </c>
       <c r="D209" s="9">
         <v>3</v>
@@ -75263,7 +77024,7 @@
         <v>199</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I209" s="7" t="s">
         <v>13</v>
@@ -75277,7 +77038,7 @@
         <v>24</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>1180</v>
+        <v>1235</v>
       </c>
       <c r="D210" s="16">
         <v>3</v>
@@ -75292,7 +77053,7 @@
         <v>200</v>
       </c>
       <c r="H210" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I210" s="14" t="s">
         <v>13</v>
@@ -75306,7 +77067,7 @@
         <v>26</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>1181</v>
+        <v>1236</v>
       </c>
       <c r="D211" s="9">
         <v>3</v>
@@ -75321,7 +77082,7 @@
         <v>201</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I211" s="7" t="s">
         <v>13</v>
@@ -75335,7 +77096,7 @@
         <v>18</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>1182</v>
+        <v>1237</v>
       </c>
       <c r="D212" s="16">
         <v>3</v>
@@ -75350,7 +77111,7 @@
         <v>202</v>
       </c>
       <c r="H212" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I212" s="14" t="s">
         <v>13</v>
@@ -75364,7 +77125,7 @@
         <v>17</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>1183</v>
+        <v>1238</v>
       </c>
       <c r="D213" s="9">
         <v>3</v>
@@ -75379,7 +77140,7 @@
         <v>203</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I213" s="7" t="s">
         <v>13</v>
@@ -75393,7 +77154,7 @@
         <v>129</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>1184</v>
+        <v>1239</v>
       </c>
       <c r="D214" s="19">
         <v>4</v>
@@ -75408,7 +77169,7 @@
         <v>204</v>
       </c>
       <c r="H214" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I214" s="17" t="s">
         <v>13</v>
@@ -75422,7 +77183,7 @@
         <v>17</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>1185</v>
+        <v>1240</v>
       </c>
       <c r="D215" s="9">
         <v>3</v>
@@ -75437,7 +77198,7 @@
         <v>205</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I215" s="7" t="s">
         <v>13</v>
@@ -75451,7 +77212,7 @@
         <v>26</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>1186</v>
+        <v>1241</v>
       </c>
       <c r="D216" s="16">
         <v>3</v>
@@ -75466,7 +77227,7 @@
         <v>206</v>
       </c>
       <c r="H216" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I216" s="14" t="s">
         <v>13</v>
@@ -75480,7 +77241,7 @@
         <v>21</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>1187</v>
+        <v>1242</v>
       </c>
       <c r="D217" s="9">
         <v>3</v>
@@ -75495,7 +77256,7 @@
         <v>207</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I217" s="7" t="s">
         <v>13</v>
@@ -75509,7 +77270,7 @@
         <v>24</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>1188</v>
+        <v>1243</v>
       </c>
       <c r="D218" s="16">
         <v>3</v>
@@ -75524,7 +77285,7 @@
         <v>208</v>
       </c>
       <c r="H218" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I218" s="14" t="s">
         <v>13</v>
@@ -75538,7 +77299,7 @@
         <v>10</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>1189</v>
+        <v>1244</v>
       </c>
       <c r="D219" s="9">
         <v>3</v>
@@ -75553,7 +77314,7 @@
         <v>209</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I219" s="7" t="s">
         <v>13</v>
@@ -75567,7 +77328,7 @@
         <v>10</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>1190</v>
+        <v>1245</v>
       </c>
       <c r="D220" s="16">
         <v>3</v>
@@ -75582,7 +77343,7 @@
         <v>210</v>
       </c>
       <c r="H220" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I220" s="14" t="s">
         <v>13</v>
@@ -75596,7 +77357,7 @@
         <v>24</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>1191</v>
+        <v>1246</v>
       </c>
       <c r="D221" s="9">
         <v>3</v>
@@ -75611,7 +77372,7 @@
         <v>211</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I221" s="7" t="s">
         <v>13</v>
@@ -75625,7 +77386,7 @@
         <v>29</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>1192</v>
+        <v>1247</v>
       </c>
       <c r="D222" s="16">
         <v>3</v>
@@ -75640,7 +77401,7 @@
         <v>212</v>
       </c>
       <c r="H222" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I222" s="14" t="s">
         <v>13</v>
@@ -75654,7 +77415,7 @@
         <v>52</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>1193</v>
+        <v>1248</v>
       </c>
       <c r="D223" s="13">
         <v>4</v>
@@ -75669,7 +77430,7 @@
         <v>213</v>
       </c>
       <c r="H223" s="11" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I223" s="11" t="s">
         <v>13</v>
@@ -75683,7 +77444,7 @@
         <v>40</v>
       </c>
       <c r="C224" s="18" t="s">
-        <v>1194</v>
+        <v>1249</v>
       </c>
       <c r="D224" s="19">
         <v>4</v>
@@ -75698,7 +77459,7 @@
         <v>214</v>
       </c>
       <c r="H224" s="17" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I224" s="17" t="s">
         <v>13</v>
@@ -75712,7 +77473,7 @@
         <v>17</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>1195</v>
+        <v>1250</v>
       </c>
       <c r="D225" s="9">
         <v>3</v>
@@ -75727,7 +77488,7 @@
         <v>215</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I225" s="7" t="s">
         <v>13</v>
@@ -75741,7 +77502,7 @@
         <v>29</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>1196</v>
+        <v>1251</v>
       </c>
       <c r="D226" s="16">
         <v>3</v>
@@ -75756,7 +77517,7 @@
         <v>216</v>
       </c>
       <c r="H226" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I226" s="14" t="s">
         <v>13</v>
@@ -75770,7 +77531,7 @@
         <v>20</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>1197</v>
+        <v>1252</v>
       </c>
       <c r="D227" s="9">
         <v>3</v>
@@ -75785,7 +77546,7 @@
         <v>217</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I227" s="7" t="s">
         <v>13</v>
@@ -75799,7 +77560,7 @@
         <v>10</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>1198</v>
+        <v>1253</v>
       </c>
       <c r="D228" s="16">
         <v>3</v>
@@ -75814,7 +77575,7 @@
         <v>218</v>
       </c>
       <c r="H228" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I228" s="14" t="s">
         <v>13</v>
@@ -75828,7 +77589,7 @@
         <v>21</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>1199</v>
+        <v>1254</v>
       </c>
       <c r="D229" s="9">
         <v>3</v>
@@ -75843,7 +77604,7 @@
         <v>219</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I229" s="7" t="s">
         <v>13</v>
@@ -75857,7 +77618,7 @@
         <v>24</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>1200</v>
+        <v>1255</v>
       </c>
       <c r="D230" s="16">
         <v>3</v>
@@ -75872,9 +77633,299 @@
         <v>220</v>
       </c>
       <c r="H230" s="14" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="I230" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D231" s="9">
+        <v>3</v>
+      </c>
+      <c r="E231" s="9">
+        <v>1</v>
+      </c>
+      <c r="F231" s="9">
+        <v>230</v>
+      </c>
+      <c r="G231" s="9">
+        <v>221</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I231" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D232" s="16">
+        <v>3</v>
+      </c>
+      <c r="E232" s="16">
+        <v>1</v>
+      </c>
+      <c r="F232" s="16">
+        <v>231</v>
+      </c>
+      <c r="G232" s="16">
+        <v>222</v>
+      </c>
+      <c r="H232" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I232" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D233" s="9">
+        <v>3</v>
+      </c>
+      <c r="E233" s="9">
+        <v>1</v>
+      </c>
+      <c r="F233" s="9">
+        <v>232</v>
+      </c>
+      <c r="G233" s="9">
+        <v>223</v>
+      </c>
+      <c r="H233" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I233" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D234" s="19">
+        <v>4</v>
+      </c>
+      <c r="E234" s="19">
+        <v>10</v>
+      </c>
+      <c r="F234" s="19">
+        <v>233</v>
+      </c>
+      <c r="G234" s="19">
+        <v>224</v>
+      </c>
+      <c r="H234" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I234" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D235" s="9">
+        <v>3</v>
+      </c>
+      <c r="E235" s="9">
+        <v>1</v>
+      </c>
+      <c r="F235" s="9">
+        <v>234</v>
+      </c>
+      <c r="G235" s="9">
+        <v>225</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I235" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D236" s="16">
+        <v>3</v>
+      </c>
+      <c r="E236" s="16">
+        <v>1</v>
+      </c>
+      <c r="F236" s="16">
+        <v>235</v>
+      </c>
+      <c r="G236" s="16">
+        <v>226</v>
+      </c>
+      <c r="H236" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I236" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D237" s="9">
+        <v>3</v>
+      </c>
+      <c r="E237" s="9">
+        <v>1</v>
+      </c>
+      <c r="F237" s="9">
+        <v>236</v>
+      </c>
+      <c r="G237" s="9">
+        <v>227</v>
+      </c>
+      <c r="H237" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I237" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238" s="15" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D238" s="16">
+        <v>3</v>
+      </c>
+      <c r="E238" s="16">
+        <v>1</v>
+      </c>
+      <c r="F238" s="16">
+        <v>237</v>
+      </c>
+      <c r="G238" s="16">
+        <v>228</v>
+      </c>
+      <c r="H238" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I238" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D239" s="9">
+        <v>3</v>
+      </c>
+      <c r="E239" s="9">
+        <v>1</v>
+      </c>
+      <c r="F239" s="9">
+        <v>238</v>
+      </c>
+      <c r="G239" s="9">
+        <v>229</v>
+      </c>
+      <c r="H239" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I239" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C240" s="15" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D240" s="16">
+        <v>3</v>
+      </c>
+      <c r="E240" s="16">
+        <v>1</v>
+      </c>
+      <c r="F240" s="16">
+        <v>239</v>
+      </c>
+      <c r="G240" s="16">
+        <v>230</v>
+      </c>
+      <c r="H240" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I240" s="14" t="s">
         <v>13</v>
       </c>
     </row>
@@ -75952,43 +78003,43 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1201</v>
+        <v>1266</v>
       </c>
       <c r="C1" t="s">
-        <v>1202</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1203</v>
+        <v>1268</v>
       </c>
       <c r="B2" t="s">
-        <v>1204</v>
+        <v>1269</v>
       </c>
       <c r="C2" t="s">
-        <v>1205</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>980</v>
+        <v>1035</v>
       </c>
       <c r="B3" t="s">
-        <v>1204</v>
+        <v>1269</v>
       </c>
       <c r="C3" t="s">
-        <v>1205</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1206</v>
+        <v>1271</v>
       </c>
       <c r="B4" t="s">
-        <v>1207</v>
+        <v>1272</v>
       </c>
       <c r="C4" t="s">
-        <v>1208</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -75996,43 +78047,43 @@
         <v>652</v>
       </c>
       <c r="B5" t="s">
-        <v>1209</v>
+        <v>1274</v>
       </c>
       <c r="C5" t="s">
-        <v>1210</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1211</v>
+        <v>1276</v>
       </c>
       <c r="B6" t="s">
-        <v>1212</v>
+        <v>1277</v>
       </c>
       <c r="C6" t="s">
-        <v>1213</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1214</v>
+        <v>1279</v>
       </c>
       <c r="B7" t="s">
-        <v>1215</v>
+        <v>1280</v>
       </c>
       <c r="C7" t="s">
-        <v>1216</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1217</v>
+        <v>1282</v>
       </c>
       <c r="B8" t="s">
-        <v>1218</v>
+        <v>1283</v>
       </c>
       <c r="C8" t="s">
-        <v>1219</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -76040,76 +78091,76 @@
         <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>1220</v>
+        <v>1285</v>
       </c>
       <c r="C9" t="s">
-        <v>1221</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1222</v>
+        <v>1287</v>
       </c>
       <c r="B10" t="s">
-        <v>1223</v>
+        <v>1288</v>
       </c>
       <c r="C10" t="s">
-        <v>1224</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1225</v>
+        <v>1290</v>
       </c>
       <c r="B11" t="s">
-        <v>1226</v>
+        <v>1291</v>
       </c>
       <c r="C11" t="s">
-        <v>1227</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="B12" t="s">
-        <v>1229</v>
+        <v>1294</v>
       </c>
       <c r="C12" t="s">
-        <v>1230</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1206</v>
+        <v>1271</v>
       </c>
       <c r="B13" t="s">
-        <v>1231</v>
+        <v>1296</v>
       </c>
       <c r="C13" t="s">
-        <v>1232</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1211</v>
+        <v>1276</v>
       </c>
       <c r="B14" t="s">
-        <v>1233</v>
+        <v>1298</v>
       </c>
       <c r="C14" t="s">
-        <v>1234</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1214</v>
+        <v>1279</v>
       </c>
       <c r="B15" t="s">
-        <v>1235</v>
+        <v>1300</v>
       </c>
       <c r="C15" t="s">
-        <v>1236</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -76117,10 +78168,10 @@
         <v>647</v>
       </c>
       <c r="B16" t="s">
-        <v>1237</v>
+        <v>1302</v>
       </c>
       <c r="C16" t="s">
-        <v>1238</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -76128,10 +78179,10 @@
         <v>652</v>
       </c>
       <c r="B17" t="s">
-        <v>1239</v>
+        <v>1304</v>
       </c>
       <c r="C17" t="s">
-        <v>1240</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -76139,21 +78190,21 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>1241</v>
+        <v>1306</v>
       </c>
       <c r="C18" t="s">
-        <v>1242</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1243</v>
+        <v>1308</v>
       </c>
       <c r="B19" t="s">
-        <v>1244</v>
+        <v>1309</v>
       </c>
       <c r="C19" t="s">
-        <v>1245</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -76161,21 +78212,21 @@
         <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>1246</v>
+        <v>1311</v>
       </c>
       <c r="C20" t="s">
-        <v>1247</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1248</v>
+        <v>1313</v>
       </c>
       <c r="B21" t="s">
-        <v>1249</v>
+        <v>1314</v>
       </c>
       <c r="C21" t="s">
-        <v>1250</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -76183,43 +78234,43 @@
         <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>1251</v>
+        <v>1316</v>
       </c>
       <c r="C22" t="s">
-        <v>1252</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1211</v>
+        <v>1276</v>
       </c>
       <c r="B23" t="s">
-        <v>1253</v>
+        <v>1318</v>
       </c>
       <c r="C23" t="s">
-        <v>1254</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="B24" t="s">
-        <v>1255</v>
+        <v>1320</v>
       </c>
       <c r="C24" t="s">
-        <v>1256</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1217</v>
+        <v>1282</v>
       </c>
       <c r="B25" t="s">
-        <v>1257</v>
+        <v>1322</v>
       </c>
       <c r="C25" t="s">
-        <v>1258</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -76227,10 +78278,10 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>1259</v>
+        <v>1324</v>
       </c>
       <c r="C26" t="s">
-        <v>1260</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -76238,21 +78289,21 @@
         <v>430</v>
       </c>
       <c r="B27" t="s">
-        <v>1261</v>
+        <v>1326</v>
       </c>
       <c r="C27" t="s">
-        <v>1262</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1214</v>
+        <v>1279</v>
       </c>
       <c r="B28" t="s">
-        <v>1263</v>
+        <v>1328</v>
       </c>
       <c r="C28" t="s">
-        <v>1264</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -76260,43 +78311,43 @@
         <v>380</v>
       </c>
       <c r="B29" t="s">
-        <v>1265</v>
+        <v>1330</v>
       </c>
       <c r="C29" t="s">
-        <v>1266</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1248</v>
+        <v>1313</v>
       </c>
       <c r="B30" t="s">
-        <v>1267</v>
+        <v>1332</v>
       </c>
       <c r="C30" t="s">
-        <v>1268</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1269</v>
+        <v>1334</v>
       </c>
       <c r="B31" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="C31" t="s">
-        <v>1271</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1243</v>
+        <v>1308</v>
       </c>
       <c r="B32" t="s">
-        <v>1272</v>
+        <v>1337</v>
       </c>
       <c r="C32" t="s">
-        <v>1273</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -76304,10 +78355,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>1274</v>
+        <v>1339</v>
       </c>
       <c r="C33" t="s">
-        <v>1275</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -76315,10 +78366,10 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>1276</v>
+        <v>1341</v>
       </c>
       <c r="C34" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -76326,10 +78377,10 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="C35" t="s">
-        <v>1279</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -76337,10 +78388,10 @@
         <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>1280</v>
+        <v>1345</v>
       </c>
       <c r="C36" t="s">
-        <v>1281</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -76348,10 +78399,10 @@
         <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>1282</v>
+        <v>1347</v>
       </c>
       <c r="C37" t="s">
-        <v>1283</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -76359,10 +78410,10 @@
         <v>143</v>
       </c>
       <c r="B38" t="s">
-        <v>1284</v>
+        <v>1349</v>
       </c>
       <c r="C38" t="s">
-        <v>1285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -76370,10 +78421,10 @@
         <v>247</v>
       </c>
       <c r="B39" t="s">
-        <v>1286</v>
+        <v>1351</v>
       </c>
       <c r="C39" t="s">
-        <v>1287</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -76381,10 +78432,10 @@
         <v>322</v>
       </c>
       <c r="B40" t="s">
-        <v>1288</v>
+        <v>1353</v>
       </c>
       <c r="C40" t="s">
-        <v>1289</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -76392,10 +78443,10 @@
         <v>351</v>
       </c>
       <c r="B41" t="s">
-        <v>1290</v>
+        <v>1355</v>
       </c>
       <c r="C41" t="s">
-        <v>1291</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -76403,10 +78454,10 @@
         <v>380</v>
       </c>
       <c r="B42" t="s">
-        <v>1292</v>
+        <v>1357</v>
       </c>
       <c r="C42" t="s">
-        <v>1293</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -76414,21 +78465,21 @@
         <v>403</v>
       </c>
       <c r="B43" t="s">
-        <v>1294</v>
+        <v>1359</v>
       </c>
       <c r="C43" t="s">
-        <v>1295</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1248</v>
+        <v>1313</v>
       </c>
       <c r="B44" t="s">
-        <v>1296</v>
+        <v>1361</v>
       </c>
       <c r="C44" t="s">
-        <v>1297</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -76436,32 +78487,32 @@
         <v>424</v>
       </c>
       <c r="B45" t="s">
-        <v>1298</v>
+        <v>1363</v>
       </c>
       <c r="C45" t="s">
-        <v>1299</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1228</v>
+        <v>1293</v>
       </c>
       <c r="B46" t="s">
-        <v>1300</v>
+        <v>1365</v>
       </c>
       <c r="C46" t="s">
-        <v>1301</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1302</v>
+        <v>1367</v>
       </c>
       <c r="B47" t="s">
-        <v>1303</v>
+        <v>1368</v>
       </c>
       <c r="C47" t="s">
-        <v>1304</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -76469,10 +78520,10 @@
         <v>430</v>
       </c>
       <c r="B48" t="s">
-        <v>1305</v>
+        <v>1370</v>
       </c>
       <c r="C48" t="s">
-        <v>1306</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -76480,10 +78531,10 @@
         <v>351</v>
       </c>
       <c r="B49" t="s">
-        <v>1307</v>
+        <v>1372</v>
       </c>
       <c r="C49" t="s">
-        <v>1308</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -76491,10 +78542,10 @@
         <v>492</v>
       </c>
       <c r="B50" t="s">
-        <v>1309</v>
+        <v>1374</v>
       </c>
       <c r="C50" t="s">
-        <v>1310</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -76502,10 +78553,10 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>1311</v>
+        <v>1376</v>
       </c>
       <c r="C51" t="s">
-        <v>1312</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -76513,10 +78564,10 @@
         <v>424</v>
       </c>
       <c r="B52" t="s">
-        <v>1313</v>
+        <v>1378</v>
       </c>
       <c r="C52" t="s">
-        <v>1314</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -76524,10 +78575,10 @@
         <v>647</v>
       </c>
       <c r="B53" t="s">
-        <v>1315</v>
+        <v>1380</v>
       </c>
       <c r="C53" t="s">
-        <v>1316</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -76535,10 +78586,10 @@
         <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>1317</v>
+        <v>1382</v>
       </c>
       <c r="C54" t="s">
-        <v>1318</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -76546,10 +78597,10 @@
         <v>657</v>
       </c>
       <c r="B55" t="s">
-        <v>1319</v>
+        <v>1384</v>
       </c>
       <c r="C55" t="s">
-        <v>1320</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -76557,10 +78608,10 @@
         <v>693</v>
       </c>
       <c r="B56" t="s">
-        <v>1207</v>
+        <v>1272</v>
       </c>
       <c r="C56" t="s">
-        <v>1208</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -76568,10 +78619,10 @@
         <v>693</v>
       </c>
       <c r="B57" t="s">
-        <v>1209</v>
+        <v>1274</v>
       </c>
       <c r="C57" t="s">
-        <v>1210</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -76579,10 +78630,10 @@
         <v>693</v>
       </c>
       <c r="B58" t="s">
-        <v>1212</v>
+        <v>1277</v>
       </c>
       <c r="C58" t="s">
-        <v>1213</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -76590,10 +78641,10 @@
         <v>693</v>
       </c>
       <c r="B59" t="s">
-        <v>1215</v>
+        <v>1280</v>
       </c>
       <c r="C59" t="s">
-        <v>1216</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -76601,10 +78652,10 @@
         <v>693</v>
       </c>
       <c r="B60" t="s">
-        <v>1218</v>
+        <v>1283</v>
       </c>
       <c r="C60" t="s">
-        <v>1219</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -76612,10 +78663,10 @@
         <v>693</v>
       </c>
       <c r="B61" t="s">
-        <v>1220</v>
+        <v>1285</v>
       </c>
       <c r="C61" t="s">
-        <v>1221</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -76623,10 +78674,10 @@
         <v>693</v>
       </c>
       <c r="B62" t="s">
-        <v>1223</v>
+        <v>1288</v>
       </c>
       <c r="C62" t="s">
-        <v>1321</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -76634,10 +78685,10 @@
         <v>693</v>
       </c>
       <c r="B63" t="s">
-        <v>1322</v>
+        <v>1387</v>
       </c>
       <c r="C63" t="s">
-        <v>1230</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -76645,10 +78696,10 @@
         <v>693</v>
       </c>
       <c r="B64" t="s">
-        <v>1231</v>
+        <v>1296</v>
       </c>
       <c r="C64" t="s">
-        <v>1232</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -76656,10 +78707,10 @@
         <v>693</v>
       </c>
       <c r="B65" t="s">
-        <v>1233</v>
+        <v>1298</v>
       </c>
       <c r="C65" t="s">
-        <v>1234</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -76667,10 +78718,10 @@
         <v>693</v>
       </c>
       <c r="B66" t="s">
-        <v>1235</v>
+        <v>1300</v>
       </c>
       <c r="C66" t="s">
-        <v>1236</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -76678,10 +78729,10 @@
         <v>693</v>
       </c>
       <c r="B67" t="s">
-        <v>1237</v>
+        <v>1302</v>
       </c>
       <c r="C67" t="s">
-        <v>1238</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -76689,10 +78740,10 @@
         <v>693</v>
       </c>
       <c r="B68" t="s">
-        <v>1239</v>
+        <v>1304</v>
       </c>
       <c r="C68" t="s">
-        <v>1240</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -76700,10 +78751,10 @@
         <v>693</v>
       </c>
       <c r="B69" t="s">
-        <v>1241</v>
+        <v>1306</v>
       </c>
       <c r="C69" t="s">
-        <v>1242</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -76711,10 +78762,10 @@
         <v>693</v>
       </c>
       <c r="B70" t="s">
-        <v>1244</v>
+        <v>1309</v>
       </c>
       <c r="C70" t="s">
-        <v>1245</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -76722,10 +78773,10 @@
         <v>693</v>
       </c>
       <c r="B71" t="s">
-        <v>1246</v>
+        <v>1311</v>
       </c>
       <c r="C71" t="s">
-        <v>1247</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -76733,10 +78784,10 @@
         <v>693</v>
       </c>
       <c r="B72" t="s">
-        <v>1249</v>
+        <v>1314</v>
       </c>
       <c r="C72" t="s">
-        <v>1250</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -76744,10 +78795,10 @@
         <v>693</v>
       </c>
       <c r="B73" t="s">
-        <v>1251</v>
+        <v>1316</v>
       </c>
       <c r="C73" t="s">
-        <v>1252</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -76755,10 +78806,10 @@
         <v>693</v>
       </c>
       <c r="B74" t="s">
-        <v>1253</v>
+        <v>1318</v>
       </c>
       <c r="C74" t="s">
-        <v>1254</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -76766,10 +78817,10 @@
         <v>693</v>
       </c>
       <c r="B75" t="s">
-        <v>1255</v>
+        <v>1320</v>
       </c>
       <c r="C75" t="s">
-        <v>1256</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -76777,10 +78828,10 @@
         <v>693</v>
       </c>
       <c r="B76" t="s">
-        <v>1257</v>
+        <v>1322</v>
       </c>
       <c r="C76" t="s">
-        <v>1258</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -76788,10 +78839,10 @@
         <v>693</v>
       </c>
       <c r="B77" t="s">
-        <v>1259</v>
+        <v>1324</v>
       </c>
       <c r="C77" t="s">
-        <v>1260</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -76799,10 +78850,10 @@
         <v>693</v>
       </c>
       <c r="B78" t="s">
-        <v>1261</v>
+        <v>1326</v>
       </c>
       <c r="C78" t="s">
-        <v>1262</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -76810,10 +78861,10 @@
         <v>693</v>
       </c>
       <c r="B79" t="s">
-        <v>1263</v>
+        <v>1328</v>
       </c>
       <c r="C79" t="s">
-        <v>1264</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -76821,10 +78872,10 @@
         <v>693</v>
       </c>
       <c r="B80" t="s">
-        <v>1265</v>
+        <v>1330</v>
       </c>
       <c r="C80" t="s">
-        <v>1266</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -76832,10 +78883,10 @@
         <v>693</v>
       </c>
       <c r="B81" t="s">
-        <v>1267</v>
+        <v>1332</v>
       </c>
       <c r="C81" t="s">
-        <v>1268</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -76843,10 +78894,10 @@
         <v>693</v>
       </c>
       <c r="B82" t="s">
-        <v>1270</v>
+        <v>1335</v>
       </c>
       <c r="C82" t="s">
-        <v>1271</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -76854,10 +78905,10 @@
         <v>693</v>
       </c>
       <c r="B83" t="s">
-        <v>1272</v>
+        <v>1337</v>
       </c>
       <c r="C83" t="s">
-        <v>1273</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -76865,10 +78916,10 @@
         <v>693</v>
       </c>
       <c r="B84" t="s">
-        <v>1274</v>
+        <v>1339</v>
       </c>
       <c r="C84" t="s">
-        <v>1275</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -76876,10 +78927,10 @@
         <v>693</v>
       </c>
       <c r="B85" t="s">
-        <v>1276</v>
+        <v>1341</v>
       </c>
       <c r="C85" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -76887,10 +78938,10 @@
         <v>693</v>
       </c>
       <c r="B86" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
       <c r="C86" t="s">
-        <v>1279</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -76898,10 +78949,10 @@
         <v>693</v>
       </c>
       <c r="B87" t="s">
-        <v>1280</v>
+        <v>1345</v>
       </c>
       <c r="C87" t="s">
-        <v>1281</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -76909,10 +78960,10 @@
         <v>693</v>
       </c>
       <c r="B88" t="s">
-        <v>1282</v>
+        <v>1347</v>
       </c>
       <c r="C88" t="s">
-        <v>1283</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -76920,10 +78971,10 @@
         <v>693</v>
       </c>
       <c r="B89" t="s">
-        <v>1284</v>
+        <v>1349</v>
       </c>
       <c r="C89" t="s">
-        <v>1285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -76931,10 +78982,10 @@
         <v>693</v>
       </c>
       <c r="B90" t="s">
-        <v>1286</v>
+        <v>1351</v>
       </c>
       <c r="C90" t="s">
-        <v>1287</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -76942,10 +78993,10 @@
         <v>693</v>
       </c>
       <c r="B91" t="s">
-        <v>1288</v>
+        <v>1353</v>
       </c>
       <c r="C91" t="s">
-        <v>1289</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -76953,10 +79004,10 @@
         <v>693</v>
       </c>
       <c r="B92" t="s">
-        <v>1290</v>
+        <v>1355</v>
       </c>
       <c r="C92" t="s">
-        <v>1291</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -76964,10 +79015,10 @@
         <v>693</v>
       </c>
       <c r="B93" t="s">
-        <v>1292</v>
+        <v>1357</v>
       </c>
       <c r="C93" t="s">
-        <v>1293</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -76975,10 +79026,10 @@
         <v>693</v>
       </c>
       <c r="B94" t="s">
-        <v>1294</v>
+        <v>1359</v>
       </c>
       <c r="C94" t="s">
-        <v>1295</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -76986,10 +79037,10 @@
         <v>693</v>
       </c>
       <c r="B95" t="s">
-        <v>1296</v>
+        <v>1361</v>
       </c>
       <c r="C95" t="s">
-        <v>1297</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -76997,10 +79048,10 @@
         <v>693</v>
       </c>
       <c r="B96" t="s">
-        <v>1298</v>
+        <v>1363</v>
       </c>
       <c r="C96" t="s">
-        <v>1299</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -77008,10 +79059,10 @@
         <v>693</v>
       </c>
       <c r="B97" t="s">
-        <v>1300</v>
+        <v>1365</v>
       </c>
       <c r="C97" t="s">
-        <v>1301</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -77019,10 +79070,10 @@
         <v>693</v>
       </c>
       <c r="B98" t="s">
-        <v>1303</v>
+        <v>1368</v>
       </c>
       <c r="C98" t="s">
-        <v>1304</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -77030,10 +79081,10 @@
         <v>693</v>
       </c>
       <c r="B99" t="s">
-        <v>1305</v>
+        <v>1370</v>
       </c>
       <c r="C99" t="s">
-        <v>1306</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -77041,10 +79092,10 @@
         <v>693</v>
       </c>
       <c r="B100" t="s">
-        <v>1307</v>
+        <v>1372</v>
       </c>
       <c r="C100" t="s">
-        <v>1308</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -77052,10 +79103,10 @@
         <v>693</v>
       </c>
       <c r="B101" t="s">
-        <v>1309</v>
+        <v>1374</v>
       </c>
       <c r="C101" t="s">
-        <v>1310</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -77063,10 +79114,10 @@
         <v>693</v>
       </c>
       <c r="B102" t="s">
-        <v>1311</v>
+        <v>1376</v>
       </c>
       <c r="C102" t="s">
-        <v>1312</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -77074,10 +79125,10 @@
         <v>693</v>
       </c>
       <c r="B103" t="s">
-        <v>1313</v>
+        <v>1378</v>
       </c>
       <c r="C103" t="s">
-        <v>1314</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -77085,10 +79136,10 @@
         <v>693</v>
       </c>
       <c r="B104" t="s">
-        <v>1315</v>
+        <v>1380</v>
       </c>
       <c r="C104" t="s">
-        <v>1316</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -77096,10 +79147,10 @@
         <v>693</v>
       </c>
       <c r="B105" t="s">
-        <v>1317</v>
+        <v>1382</v>
       </c>
       <c r="C105" t="s">
-        <v>1318</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -77107,10 +79158,10 @@
         <v>693</v>
       </c>
       <c r="B106" t="s">
-        <v>1319</v>
+        <v>1384</v>
       </c>
       <c r="C106" t="s">
-        <v>1320</v>
+        <v>1385</v>
       </c>
     </row>
   </sheetData>
@@ -77130,13 +79181,13 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1323</v>
+        <v>1388</v>
       </c>
       <c r="B1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1324</v>
+        <v>1389</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -77144,10 +79195,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1325</v>
+        <v>1390</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1326</v>
+        <v>1391</v>
       </c>
     </row>
   </sheetData>
